--- a/Database ToCoShopvs.xlsx
+++ b/Database ToCoShopvs.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Orders" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="145">
   <si>
     <t>No.</t>
   </si>
@@ -435,12 +435,27 @@
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t>imageUrl</t>
+  </si>
+  <si>
+    <t>NAM/NU/KHONG_XAC_DINH</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>KHONG_XAC_DINH</t>
+  </si>
+  <si>
+    <t>Not allow update -UNIQUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,7 +574,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,12 +638,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
@@ -829,7 +838,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1018,16 +1027,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1046,6 +1045,79 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1053,85 +1125,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1440,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:XFD127"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1452,35 +1452,35 @@
     <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="1" customWidth="1"/>
     <col min="8" max="8" width="48.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.5546875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -1621,28 +1621,28 @@
       <c r="I9" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="105"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
@@ -1819,28 +1819,28 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
     </row>
     <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -2003,7 +2003,7 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="101">
+      <c r="A33" s="120">
         <v>7</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -2020,7 +2020,7 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="102"/>
+      <c r="A34" s="121"/>
       <c r="B34" s="4" t="s">
         <v>26</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="102"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="4" t="s">
         <v>25</v>
       </c>
@@ -2060,7 +2060,7 @@
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="102"/>
+      <c r="A36" s="121"/>
       <c r="B36" s="4" t="s">
         <v>54</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="102"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="4" t="s">
         <v>53</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A38" s="102"/>
+      <c r="A38" s="121"/>
       <c r="B38" s="23" t="s">
         <v>27</v>
       </c>
@@ -2106,16 +2106,16 @@
         <v>61</v>
       </c>
       <c r="D38" s="25"/>
-      <c r="E38" s="94" t="s">
+      <c r="E38" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="96"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="92"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="102"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="26" t="s">
         <v>51</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="102"/>
+      <c r="A40" s="121"/>
       <c r="B40" s="26" t="s">
         <v>119</v>
       </c>
@@ -2153,7 +2153,7 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="102"/>
+      <c r="A41" s="121"/>
       <c r="B41" s="26" t="s">
         <v>120</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="103"/>
+      <c r="A42" s="122"/>
       <c r="B42" s="26" t="s">
         <v>52</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="101">
+      <c r="A43" s="120">
         <v>8</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -2210,7 +2210,7 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="102"/>
+      <c r="A44" s="121"/>
       <c r="B44" s="4" t="s">
         <v>100</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="102"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="4" t="s">
         <v>54</v>
       </c>
@@ -2248,7 +2248,7 @@
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="102"/>
+      <c r="A46" s="121"/>
       <c r="B46" s="4" t="s">
         <v>53</v>
       </c>
@@ -2267,7 +2267,7 @@
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="102"/>
+      <c r="A47" s="121"/>
       <c r="B47" s="4" t="s">
         <v>26</v>
       </c>
@@ -2286,7 +2286,7 @@
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A48" s="102"/>
+      <c r="A48" s="121"/>
       <c r="B48" s="23" t="s">
         <v>27</v>
       </c>
@@ -2294,18 +2294,18 @@
         <v>61</v>
       </c>
       <c r="D48" s="25"/>
-      <c r="E48" s="94" t="s">
+      <c r="E48" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="107" t="s">
+      <c r="F48" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="108"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="119"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="102"/>
+      <c r="A49" s="121"/>
       <c r="B49" s="26" t="s">
         <v>51</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="102"/>
+      <c r="A50" s="121"/>
       <c r="B50" s="26" t="s">
         <v>119</v>
       </c>
@@ -2343,7 +2343,7 @@
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="102"/>
+      <c r="A51" s="121"/>
       <c r="B51" s="26" t="s">
         <v>120</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="102"/>
+      <c r="A52" s="121"/>
       <c r="B52" s="26" t="s">
         <v>52</v>
       </c>
@@ -2381,7 +2381,7 @@
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="103"/>
+      <c r="A53" s="122"/>
       <c r="B53" s="4" t="s">
         <v>49</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="101">
+      <c r="A54" s="120">
         <v>9</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -2419,7 +2419,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="102"/>
+      <c r="A55" s="121"/>
       <c r="B55" s="4" t="s">
         <v>55</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" s="11" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A56" s="102"/>
+      <c r="A56" s="121"/>
       <c r="B56" s="23" t="s">
         <v>57</v>
       </c>
@@ -2444,16 +2444,16 @@
         <v>38</v>
       </c>
       <c r="D56" s="25"/>
-      <c r="E56" s="106" t="s">
+      <c r="E56" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="107"/>
-      <c r="G56" s="107"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="108"/>
+      <c r="F56" s="118"/>
+      <c r="G56" s="118"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="119"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="102"/>
+      <c r="A57" s="121"/>
       <c r="B57" s="26" t="s">
         <v>58</v>
       </c>
@@ -2470,7 +2470,7 @@
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="102"/>
+      <c r="A58" s="121"/>
       <c r="B58" s="26" t="s">
         <v>95</v>
       </c>
@@ -2487,7 +2487,7 @@
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="102"/>
+      <c r="A59" s="121"/>
       <c r="B59" s="26" t="s">
         <v>59</v>
       </c>
@@ -2506,7 +2506,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="103"/>
+      <c r="A60" s="122"/>
       <c r="B60" s="26" t="s">
         <v>60</v>
       </c>
@@ -2519,13 +2519,13 @@
       <c r="E60" s="7"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="91" t="s">
+      <c r="H60" s="87" t="s">
         <v>98</v>
       </c>
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="109">
+      <c r="A61" s="127">
         <v>10</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -2542,7 +2542,7 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="109"/>
+      <c r="A62" s="127"/>
       <c r="B62" s="4" t="s">
         <v>122</v>
       </c>
@@ -2561,7 +2561,7 @@
       <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="109"/>
+      <c r="A63" s="127"/>
       <c r="B63" s="4" t="s">
         <v>127</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="I63" s="4"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="109"/>
+      <c r="A64" s="127"/>
       <c r="B64" s="4" t="s">
         <v>41</v>
       </c>
@@ -2591,7 +2591,7 @@
       <c r="I64" s="4"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="109"/>
+      <c r="A65" s="127"/>
       <c r="B65" s="4" t="s">
         <v>43</v>
       </c>
@@ -2606,7 +2606,7 @@
       <c r="I65" s="4"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="109"/>
+      <c r="A66" s="127"/>
       <c r="B66" s="4" t="s">
         <v>44</v>
       </c>
@@ -2621,7 +2621,7 @@
       <c r="I66" s="4"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="101">
+      <c r="A67" s="120">
         <v>11</v>
       </c>
       <c r="B67" s="8" t="s">
@@ -2638,7 +2638,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="102"/>
+      <c r="A68" s="121"/>
       <c r="B68" s="4" t="s">
         <v>105</v>
       </c>
@@ -2657,7 +2657,7 @@
       <c r="I68" s="4"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="102"/>
+      <c r="A69" s="121"/>
       <c r="B69" s="4" t="s">
         <v>106</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="103"/>
+      <c r="A70" s="122"/>
       <c r="B70" s="4" t="s">
         <v>97</v>
       </c>
@@ -2693,28 +2693,28 @@
       <c r="I70" s="4"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="104" t="s">
+      <c r="A73" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="104"/>
-      <c r="C73" s="104"/>
-      <c r="D73" s="104"/>
-      <c r="E73" s="104"/>
-      <c r="F73" s="104"/>
-      <c r="G73" s="104"/>
-      <c r="H73" s="104"/>
-      <c r="I73" s="104"/>
+      <c r="B73" s="114"/>
+      <c r="C73" s="114"/>
+      <c r="D73" s="114"/>
+      <c r="E73" s="114"/>
+      <c r="F73" s="114"/>
+      <c r="G73" s="114"/>
+      <c r="H73" s="114"/>
+      <c r="I73" s="114"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="105"/>
-      <c r="B74" s="105"/>
-      <c r="C74" s="105"/>
-      <c r="D74" s="105"/>
-      <c r="E74" s="105"/>
-      <c r="F74" s="105"/>
-      <c r="G74" s="105"/>
-      <c r="H74" s="105"/>
-      <c r="I74" s="105"/>
+      <c r="A74" s="115"/>
+      <c r="B74" s="115"/>
+      <c r="C74" s="115"/>
+      <c r="D74" s="115"/>
+      <c r="E74" s="115"/>
+      <c r="F74" s="115"/>
+      <c r="G74" s="115"/>
+      <c r="H74" s="115"/>
+      <c r="I74" s="115"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="39" t="s">
@@ -2807,7 +2807,7 @@
       <c r="I78" s="49"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="92">
+      <c r="A79" s="88">
         <f t="shared" ref="A79:A82" si="3">A78+1</f>
         <v>4</v>
       </c>
@@ -2831,7 +2831,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B80" s="93" t="s">
+      <c r="B80" s="89" t="s">
         <v>103</v>
       </c>
       <c r="C80" s="46" t="s">
@@ -2889,28 +2889,28 @@
       <c r="I82" s="44"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="110" t="s">
+      <c r="A86" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="110"/>
-      <c r="C86" s="110"/>
-      <c r="D86" s="110"/>
-      <c r="E86" s="110"/>
-      <c r="F86" s="110"/>
-      <c r="G86" s="110"/>
-      <c r="H86" s="110"/>
-      <c r="I86" s="110"/>
+      <c r="B86" s="112"/>
+      <c r="C86" s="112"/>
+      <c r="D86" s="112"/>
+      <c r="E86" s="112"/>
+      <c r="F86" s="112"/>
+      <c r="G86" s="112"/>
+      <c r="H86" s="112"/>
+      <c r="I86" s="112"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="113"/>
-      <c r="B87" s="113"/>
-      <c r="C87" s="113"/>
-      <c r="D87" s="113"/>
-      <c r="E87" s="113"/>
-      <c r="F87" s="113"/>
-      <c r="G87" s="113"/>
-      <c r="H87" s="113"/>
-      <c r="I87" s="113"/>
+      <c r="A87" s="117"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="117"/>
+      <c r="D87" s="117"/>
+      <c r="E87" s="117"/>
+      <c r="F87" s="117"/>
+      <c r="G87" s="117"/>
+      <c r="H87" s="117"/>
+      <c r="I87" s="117"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
@@ -2979,6 +2979,9 @@
       <c r="E90" s="32"/>
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
+      <c r="H90" s="128" t="s">
+        <v>144</v>
+      </c>
       <c r="I90" s="30"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -3051,28 +3054,28 @@
       <c r="A95" s="61"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="110" t="s">
+      <c r="A99" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="110"/>
-      <c r="C99" s="110"/>
-      <c r="D99" s="110"/>
-      <c r="E99" s="110"/>
-      <c r="F99" s="110"/>
-      <c r="G99" s="110"/>
-      <c r="H99" s="110"/>
-      <c r="I99" s="110"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
+      <c r="F99" s="112"/>
+      <c r="G99" s="112"/>
+      <c r="H99" s="112"/>
+      <c r="I99" s="112"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="113"/>
-      <c r="B100" s="113"/>
-      <c r="C100" s="113"/>
-      <c r="D100" s="113"/>
-      <c r="E100" s="113"/>
-      <c r="F100" s="113"/>
-      <c r="G100" s="113"/>
-      <c r="H100" s="113"/>
-      <c r="I100" s="113"/>
+      <c r="A100" s="117"/>
+      <c r="B100" s="117"/>
+      <c r="C100" s="117"/>
+      <c r="D100" s="117"/>
+      <c r="E100" s="117"/>
+      <c r="F100" s="117"/>
+      <c r="G100" s="117"/>
+      <c r="H100" s="117"/>
+      <c r="I100" s="117"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
@@ -3228,13 +3231,13 @@
       <c r="I107" s="68"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="98" t="s">
+      <c r="A111" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="B111" s="99"/>
-      <c r="C111" s="99"/>
-      <c r="D111" s="99"/>
-      <c r="E111" s="99"/>
+      <c r="B111" s="124"/>
+      <c r="C111" s="124"/>
+      <c r="D111" s="124"/>
+      <c r="E111" s="124"/>
       <c r="F111" s="71"/>
       <c r="G111" s="71"/>
       <c r="H111" s="71"/>
@@ -3305,7 +3308,9 @@
       </c>
       <c r="E114" s="80"/>
       <c r="F114" s="77"/>
-      <c r="G114" s="77"/>
+      <c r="G114" s="77" t="s">
+        <v>121</v>
+      </c>
       <c r="H114" s="77"/>
       <c r="I114" s="77"/>
     </row>
@@ -3324,7 +3329,9 @@
       </c>
       <c r="E115" s="80"/>
       <c r="F115" s="77"/>
-      <c r="G115" s="77"/>
+      <c r="G115" s="77" t="s">
+        <v>121</v>
+      </c>
       <c r="H115" s="77"/>
       <c r="I115" s="77"/>
     </row>
@@ -3364,7 +3371,9 @@
       </c>
       <c r="E117" s="80"/>
       <c r="F117" s="77"/>
-      <c r="G117" s="77"/>
+      <c r="G117" s="77" t="s">
+        <v>121</v>
+      </c>
       <c r="H117" s="62" t="s">
         <v>68</v>
       </c>
@@ -3392,395 +3401,415 @@
       <c r="I118" s="77"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="86">
+      <c r="A119" s="82">
         <v>7</v>
       </c>
-      <c r="B119" s="86" t="s">
+      <c r="B119" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="C119" s="87" t="s">
+      <c r="C119" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="D119" s="88"/>
-      <c r="E119" s="89" t="s">
+      <c r="D119" s="84"/>
+      <c r="E119" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="F119" s="86"/>
-      <c r="G119" s="86"/>
-      <c r="H119" s="86"/>
-      <c r="I119" s="86"/>
+      <c r="F119" s="82"/>
+      <c r="G119" s="82"/>
+      <c r="H119" s="82"/>
+      <c r="I119" s="82"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="82"/>
-      <c r="B120" s="82"/>
-      <c r="C120" s="83"/>
+      <c r="A120" s="82">
+        <v>8</v>
+      </c>
+      <c r="B120" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="C120" s="83" t="s">
+        <v>14</v>
+      </c>
       <c r="D120" s="84"/>
-      <c r="E120" s="85"/>
+      <c r="E120" s="85" t="s">
+        <v>17</v>
+      </c>
       <c r="F120" s="82"/>
       <c r="G120" s="82"/>
       <c r="H120" s="82"/>
       <c r="I120" s="82"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="82"/>
-      <c r="B121" s="82"/>
-      <c r="C121" s="83"/>
+      <c r="A121" s="82">
+        <v>9</v>
+      </c>
+      <c r="B121" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C121" s="83" t="s">
+        <v>14</v>
+      </c>
       <c r="D121" s="84"/>
-      <c r="E121" s="85"/>
+      <c r="E121" s="85" t="s">
+        <v>17</v>
+      </c>
       <c r="F121" s="82"/>
-      <c r="G121" s="82"/>
-      <c r="H121" s="82"/>
+      <c r="G121" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="H121" s="82" t="s">
+        <v>141</v>
+      </c>
       <c r="I121" s="82"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="90"/>
-      <c r="B122" s="90"/>
-      <c r="C122" s="90"/>
-      <c r="D122" s="90"/>
-      <c r="E122" s="90"/>
-      <c r="F122" s="90"/>
-      <c r="G122" s="90"/>
-      <c r="H122" s="90"/>
-      <c r="I122" s="90"/>
+      <c r="A122" s="86"/>
+      <c r="B122" s="86"/>
+      <c r="C122" s="86"/>
+      <c r="D122" s="86"/>
+      <c r="E122" s="86"/>
+      <c r="F122" s="86"/>
+      <c r="G122" s="86"/>
+      <c r="H122" s="86"/>
+      <c r="I122" s="86"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="100" t="s">
+      <c r="A123" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="B123" s="99"/>
-      <c r="C123" s="99"/>
-      <c r="D123" s="99"/>
-      <c r="E123" s="99"/>
+      <c r="B123" s="124"/>
+      <c r="C123" s="124"/>
+      <c r="D123" s="124"/>
+      <c r="E123" s="124"/>
       <c r="F123" s="81"/>
       <c r="G123" s="81"/>
       <c r="H123" s="81"/>
       <c r="I123" s="81"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="116" t="s">
+      <c r="A124" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="116" t="s">
+      <c r="B124" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="116" t="s">
+      <c r="C124" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="116" t="s">
+      <c r="D124" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="E124" s="116" t="s">
+      <c r="E124" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="F124" s="116" t="s">
+      <c r="F124" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="G124" s="116" t="s">
+      <c r="G124" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H124" s="116" t="s">
+      <c r="H124" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="I124" s="116" t="s">
+      <c r="I124" s="96" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="117">
+      <c r="A125" s="97">
         <v>1</v>
       </c>
-      <c r="B125" s="117" t="s">
+      <c r="B125" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C125" s="116" t="s">
+      <c r="C125" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D125" s="118"/>
-      <c r="E125" s="119"/>
-      <c r="F125" s="117" t="s">
+      <c r="D125" s="98"/>
+      <c r="E125" s="99"/>
+      <c r="F125" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="G125" s="117"/>
-      <c r="H125" s="117" t="s">
+      <c r="G125" s="97"/>
+      <c r="H125" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="I125" s="117"/>
+      <c r="I125" s="97"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="117">
+      <c r="A126" s="97">
         <v>2</v>
       </c>
-      <c r="B126" s="117" t="s">
+      <c r="B126" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="C126" s="116" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" s="118">
+      <c r="C126" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="98">
         <v>50</v>
       </c>
-      <c r="E126" s="119"/>
-      <c r="F126" s="117"/>
-      <c r="G126" s="117"/>
-      <c r="H126" s="117"/>
-      <c r="I126" s="117"/>
-    </row>
-    <row r="127" spans="1:9" s="129" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="125">
+      <c r="E126" s="99"/>
+      <c r="F126" s="97"/>
+      <c r="G126" s="97"/>
+      <c r="H126" s="97"/>
+      <c r="I126" s="97"/>
+    </row>
+    <row r="127" spans="1:9" s="109" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="105">
         <v>3</v>
       </c>
-      <c r="B127" s="125" t="s">
+      <c r="B127" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="C127" s="126" t="s">
+      <c r="C127" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="D127" s="127"/>
-      <c r="E127" s="128"/>
-      <c r="F127" s="125"/>
-      <c r="G127" s="125">
+      <c r="D127" s="107"/>
+      <c r="E127" s="108"/>
+      <c r="F127" s="105"/>
+      <c r="G127" s="105">
         <v>0</v>
       </c>
-      <c r="H127" s="125" t="s">
+      <c r="H127" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="I127" s="125"/>
-    </row>
-    <row r="128" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="120">
+      <c r="I127" s="105"/>
+    </row>
+    <row r="128" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="100">
         <v>4</v>
       </c>
-      <c r="B128" s="120" t="s">
+      <c r="B128" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="C128" s="121" t="s">
+      <c r="C128" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="D128" s="122"/>
-      <c r="E128" s="123"/>
-      <c r="F128" s="120"/>
-      <c r="G128" s="120">
+      <c r="D128" s="102"/>
+      <c r="E128" s="103"/>
+      <c r="F128" s="100"/>
+      <c r="G128" s="100">
         <v>0</v>
       </c>
-      <c r="H128" s="120" t="s">
+      <c r="H128" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="I128" s="120"/>
-    </row>
-    <row r="129" spans="1:9" s="129" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="125">
+      <c r="I128" s="100"/>
+    </row>
+    <row r="129" spans="1:9" s="109" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="105">
         <v>5</v>
       </c>
-      <c r="B129" s="125" t="s">
+      <c r="B129" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="C129" s="126" t="s">
+      <c r="C129" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="D129" s="127"/>
-      <c r="E129" s="128"/>
-      <c r="F129" s="125"/>
-      <c r="G129" s="125">
+      <c r="D129" s="107"/>
+      <c r="E129" s="108"/>
+      <c r="F129" s="105"/>
+      <c r="G129" s="105">
         <v>0</v>
       </c>
-      <c r="H129" s="125"/>
-      <c r="I129" s="125"/>
+      <c r="H129" s="105"/>
+      <c r="I129" s="105"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="117">
+      <c r="A130" s="97">
         <v>6</v>
       </c>
-      <c r="B130" s="117" t="s">
+      <c r="B130" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="C130" s="116" t="s">
+      <c r="C130" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D130" s="118"/>
-      <c r="E130" s="119"/>
-      <c r="F130" s="117" t="s">
+      <c r="D130" s="98"/>
+      <c r="E130" s="99"/>
+      <c r="F130" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="G130" s="117"/>
-      <c r="H130" s="117" t="s">
+      <c r="G130" s="97"/>
+      <c r="H130" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="I130" s="117"/>
+      <c r="I130" s="97"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="117">
+      <c r="A131" s="97">
         <v>7</v>
       </c>
-      <c r="B131" s="117" t="s">
+      <c r="B131" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="C131" s="116" t="s">
+      <c r="C131" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D131" s="118"/>
-      <c r="E131" s="119"/>
-      <c r="F131" s="117" t="s">
+      <c r="D131" s="98"/>
+      <c r="E131" s="99"/>
+      <c r="F131" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="G131" s="117"/>
-      <c r="H131" s="117" t="s">
+      <c r="G131" s="97"/>
+      <c r="H131" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="I131" s="117"/>
+      <c r="I131" s="97"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="117">
+      <c r="A132" s="97">
         <v>8</v>
       </c>
-      <c r="B132" s="117" t="s">
+      <c r="B132" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C132" s="119" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="118" t="s">
+      <c r="C132" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="E132" s="119"/>
-      <c r="F132" s="117"/>
-      <c r="G132" s="117"/>
-      <c r="H132" s="117"/>
-      <c r="I132" s="117"/>
+      <c r="E132" s="99"/>
+      <c r="F132" s="97"/>
+      <c r="G132" s="97"/>
+      <c r="H132" s="97"/>
+      <c r="I132" s="97"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="117">
+      <c r="A133" s="97">
         <v>9</v>
       </c>
-      <c r="B133" s="117" t="s">
+      <c r="B133" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="C133" s="116" t="s">
+      <c r="C133" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="118"/>
-      <c r="E133" s="119"/>
-      <c r="F133" s="117"/>
-      <c r="G133" s="117"/>
-      <c r="H133" s="117"/>
-      <c r="I133" s="117" t="s">
+      <c r="D133" s="98"/>
+      <c r="E133" s="99"/>
+      <c r="F133" s="97"/>
+      <c r="G133" s="97"/>
+      <c r="H133" s="97"/>
+      <c r="I133" s="97" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="117">
+      <c r="A134" s="97">
         <v>10</v>
       </c>
-      <c r="B134" s="117" t="s">
+      <c r="B134" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="C134" s="116" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" s="118"/>
-      <c r="E134" s="119"/>
-      <c r="F134" s="117"/>
-      <c r="G134" s="117"/>
-      <c r="H134" s="117"/>
-      <c r="I134" s="117"/>
+      <c r="C134" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="98"/>
+      <c r="E134" s="99"/>
+      <c r="F134" s="97"/>
+      <c r="G134" s="97"/>
+      <c r="H134" s="97"/>
+      <c r="I134" s="97"/>
     </row>
     <row r="135" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="117">
+      <c r="A135" s="97">
         <v>11</v>
       </c>
-      <c r="B135" s="117" t="s">
+      <c r="B135" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="C135" s="119" t="s">
+      <c r="C135" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="D135" s="118"/>
-      <c r="E135" s="119"/>
-      <c r="F135" s="117"/>
-      <c r="G135" s="117"/>
-      <c r="H135" s="117"/>
-      <c r="I135" s="117" t="s">
+      <c r="D135" s="98"/>
+      <c r="E135" s="99"/>
+      <c r="F135" s="97"/>
+      <c r="G135" s="97"/>
+      <c r="H135" s="97"/>
+      <c r="I135" s="97" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="130">
+      <c r="A136" s="110">
         <v>12</v>
       </c>
-      <c r="B136" s="130" t="s">
+      <c r="B136" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="C136" s="131" t="s">
+      <c r="C136" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="D136" s="130"/>
-      <c r="E136" s="130"/>
-      <c r="F136" s="130"/>
-      <c r="G136" s="130"/>
-      <c r="H136" s="130"/>
-      <c r="I136" s="130"/>
+      <c r="D136" s="110"/>
+      <c r="E136" s="110"/>
+      <c r="F136" s="110"/>
+      <c r="G136" s="110"/>
+      <c r="H136" s="110"/>
+      <c r="I136" s="110"/>
     </row>
     <row r="137" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="114"/>
-      <c r="B137" s="114" t="s">
+      <c r="A137" s="94"/>
+      <c r="B137" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C137" s="115" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" s="114"/>
-      <c r="E137" s="114"/>
-      <c r="F137" s="114"/>
-      <c r="G137" s="114"/>
-      <c r="H137" s="114"/>
-      <c r="I137" s="114"/>
+      <c r="C137" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="94"/>
+      <c r="E137" s="94"/>
+      <c r="F137" s="94"/>
+      <c r="G137" s="94"/>
+      <c r="H137" s="94"/>
+      <c r="I137" s="94"/>
     </row>
     <row r="138" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="114"/>
-      <c r="B138" s="114" t="s">
+      <c r="A138" s="94"/>
+      <c r="B138" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C138" s="115" t="s">
+      <c r="C138" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="D138" s="114"/>
-      <c r="E138" s="114"/>
-      <c r="F138" s="114"/>
-      <c r="G138" s="114"/>
-      <c r="H138" s="114"/>
-      <c r="I138" s="114"/>
+      <c r="D138" s="94"/>
+      <c r="E138" s="94"/>
+      <c r="F138" s="94"/>
+      <c r="G138" s="94"/>
+      <c r="H138" s="94"/>
+      <c r="I138" s="94"/>
     </row>
     <row r="139" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="114"/>
-      <c r="B139" s="114" t="s">
+      <c r="A139" s="94"/>
+      <c r="B139" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="C139" s="115" t="s">
+      <c r="C139" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="D139" s="114"/>
-      <c r="E139" s="114"/>
-      <c r="F139" s="114"/>
-      <c r="G139" s="114"/>
-      <c r="H139" s="114"/>
-      <c r="I139" s="114"/>
+      <c r="D139" s="94"/>
+      <c r="E139" s="94"/>
+      <c r="F139" s="94"/>
+      <c r="G139" s="94"/>
+      <c r="H139" s="94"/>
+      <c r="I139" s="94"/>
     </row>
     <row r="140" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="114"/>
-      <c r="B140" s="114" t="s">
+      <c r="A140" s="94"/>
+      <c r="B140" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="C140" s="114" t="s">
+      <c r="C140" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="D140" s="114"/>
-      <c r="E140" s="114"/>
-      <c r="F140" s="114"/>
-      <c r="G140" s="114"/>
-      <c r="H140" s="114"/>
-      <c r="I140" s="114"/>
+      <c r="D140" s="94"/>
+      <c r="E140" s="94"/>
+      <c r="F140" s="94"/>
+      <c r="G140" s="94"/>
+      <c r="H140" s="94"/>
+      <c r="I140" s="94"/>
     </row>
     <row r="141" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="97" t="s">
+      <c r="B141" s="93" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3819,13 +3848,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="A12:I13"/>
-    <mergeCell ref="A24:I25"/>
-    <mergeCell ref="A86:I87"/>
-    <mergeCell ref="A99:I100"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="A33:A42"/>
     <mergeCell ref="A111:E111"/>
     <mergeCell ref="A123:E123"/>
     <mergeCell ref="A43:A53"/>
@@ -3834,6 +3856,13 @@
     <mergeCell ref="A61:A66"/>
     <mergeCell ref="A54:A60"/>
     <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="A12:I13"/>
+    <mergeCell ref="A24:I25"/>
+    <mergeCell ref="A86:I87"/>
+    <mergeCell ref="A99:I100"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="A33:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Database ToCoShopvs.xlsx
+++ b/Database ToCoShopvs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="147">
   <si>
     <t>No.</t>
   </si>
@@ -254,9 +254,6 @@
     <t>SortOrder</t>
   </si>
   <si>
-    <t>Int</t>
-  </si>
-  <si>
     <t>COLLECTION: Employees</t>
   </si>
   <si>
@@ -269,12 +266,6 @@
     <t>COLLECTION: Products</t>
   </si>
   <si>
-    <t>Check Price &gt;= 0</t>
-  </si>
-  <si>
-    <t>Check Discount BETWEEN 0 AND 100</t>
-  </si>
-  <si>
     <t>Stock</t>
   </si>
   <si>
@@ -293,9 +284,6 @@
     <t>CoverImage</t>
   </si>
   <si>
-    <t>Images</t>
-  </si>
-  <si>
     <t>ObjectArray</t>
   </si>
   <si>
@@ -428,15 +416,6 @@
     <t>AUTO</t>
   </si>
   <si>
-    <t>sizes</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>imageUrl</t>
   </si>
   <si>
@@ -450,13 +429,40 @@
   </si>
   <si>
     <t>Not allow update -UNIQUE</t>
+  </si>
+  <si>
+    <t>imageUrls</t>
+  </si>
+  <si>
+    <t>imgUrl</t>
+  </si>
+  <si>
+    <t>sortOrder</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>Dien ta min=0</t>
+  </si>
+  <si>
+    <t>["S", "M", "L", "XL", "XXL"]</t>
+  </si>
+  <si>
+    <t>["Xanh Navy", "Vang", "Xam", "Den", "Hong", "Trang"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,36 +551,18 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF202124"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,12 +627,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -818,18 +800,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -838,7 +814,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1026,7 +1002,6 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1044,46 +1019,37 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1091,47 +1057,51 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1438,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I151"/>
+  <dimension ref="A2:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1459,28 +1429,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="113"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -1609,7 +1579,7 @@
       <c r="C9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1621,28 +1591,28 @@
       <c r="I9" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
@@ -1819,28 +1789,28 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="116" t="s">
+      <c r="A24" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="116"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
+      <c r="A25" s="106"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -1898,7 +1868,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>14</v>
@@ -1910,7 +1880,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I28" s="4"/>
     </row>
@@ -1932,7 +1902,7 @@
         <v>32</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I29" s="4"/>
     </row>
@@ -1942,7 +1912,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>31</v>
@@ -1954,7 +1924,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I30" s="4"/>
     </row>
@@ -1964,7 +1934,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>31</v>
@@ -1976,7 +1946,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I31" s="4"/>
     </row>
@@ -2003,7 +1973,7 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="120">
+      <c r="A33" s="95">
         <v>7</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -2020,7 +1990,7 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="121"/>
+      <c r="A34" s="96"/>
       <c r="B34" s="4" t="s">
         <v>26</v>
       </c>
@@ -2034,12 +2004,12 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="121"/>
+      <c r="A35" s="96"/>
       <c r="B35" s="4" t="s">
         <v>25</v>
       </c>
@@ -2055,12 +2025,12 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="121"/>
+      <c r="A36" s="96"/>
       <c r="B36" s="4" t="s">
         <v>54</v>
       </c>
@@ -2073,13 +2043,13 @@
       <c r="E36" s="7"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="121"/>
+      <c r="A37" s="96"/>
       <c r="B37" s="4" t="s">
         <v>53</v>
       </c>
@@ -2092,13 +2062,13 @@
       <c r="E37" s="7"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A38" s="121"/>
+      <c r="A38" s="96"/>
       <c r="B38" s="23" t="s">
         <v>27</v>
       </c>
@@ -2106,16 +2076,16 @@
         <v>61</v>
       </c>
       <c r="D38" s="25"/>
-      <c r="E38" s="90" t="s">
+      <c r="E38" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="92"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="91"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="121"/>
+      <c r="A39" s="96"/>
       <c r="B39" s="26" t="s">
         <v>51</v>
       </c>
@@ -2134,9 +2104,9 @@
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="121"/>
+      <c r="A40" s="96"/>
       <c r="B40" s="26" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>14</v>
@@ -2153,9 +2123,9 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="121"/>
+      <c r="A41" s="96"/>
       <c r="B41" s="26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>14</v>
@@ -2172,7 +2142,7 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="122"/>
+      <c r="A42" s="97"/>
       <c r="B42" s="26" t="s">
         <v>52</v>
       </c>
@@ -2185,13 +2155,13 @@
       <c r="E42" s="7"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="120">
+      <c r="A43" s="95">
         <v>8</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -2210,9 +2180,9 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="121"/>
+      <c r="A44" s="96"/>
       <c r="B44" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>10</v>
@@ -2229,7 +2199,7 @@
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="121"/>
+      <c r="A45" s="96"/>
       <c r="B45" s="4" t="s">
         <v>54</v>
       </c>
@@ -2242,13 +2212,13 @@
       <c r="E45" s="7"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="121"/>
+      <c r="A46" s="96"/>
       <c r="B46" s="4" t="s">
         <v>53</v>
       </c>
@@ -2261,13 +2231,13 @@
       <c r="E46" s="7"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="121"/>
+      <c r="A47" s="96"/>
       <c r="B47" s="4" t="s">
         <v>26</v>
       </c>
@@ -2281,12 +2251,12 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A48" s="121"/>
+      <c r="A48" s="96"/>
       <c r="B48" s="23" t="s">
         <v>27</v>
       </c>
@@ -2294,18 +2264,18 @@
         <v>61</v>
       </c>
       <c r="D48" s="25"/>
-      <c r="E48" s="90" t="s">
+      <c r="E48" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="118" t="s">
+      <c r="F48" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="G48" s="118"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="119"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="102"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="121"/>
+      <c r="A49" s="96"/>
       <c r="B49" s="26" t="s">
         <v>51</v>
       </c>
@@ -2324,9 +2294,9 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="121"/>
+      <c r="A50" s="96"/>
       <c r="B50" s="26" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>14</v>
@@ -2343,9 +2313,9 @@
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="121"/>
+      <c r="A51" s="96"/>
       <c r="B51" s="26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>14</v>
@@ -2362,7 +2332,7 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="121"/>
+      <c r="A52" s="96"/>
       <c r="B52" s="26" t="s">
         <v>52</v>
       </c>
@@ -2375,13 +2345,13 @@
       <c r="E52" s="7"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="122"/>
+      <c r="A53" s="97"/>
       <c r="B53" s="4" t="s">
         <v>49</v>
       </c>
@@ -2400,7 +2370,7 @@
       <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="120">
+      <c r="A54" s="95">
         <v>9</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -2419,7 +2389,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="121"/>
+      <c r="A55" s="96"/>
       <c r="B55" s="4" t="s">
         <v>55</v>
       </c>
@@ -2436,7 +2406,7 @@
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" s="11" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A56" s="121"/>
+      <c r="A56" s="96"/>
       <c r="B56" s="23" t="s">
         <v>57</v>
       </c>
@@ -2444,16 +2414,16 @@
         <v>38</v>
       </c>
       <c r="D56" s="25"/>
-      <c r="E56" s="126" t="s">
+      <c r="E56" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="118"/>
-      <c r="G56" s="118"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="119"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="102"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="121"/>
+      <c r="A57" s="96"/>
       <c r="B57" s="26" t="s">
         <v>58</v>
       </c>
@@ -2465,14 +2435,14 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="121"/>
+      <c r="A58" s="96"/>
       <c r="B58" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C58" s="27" t="s">
         <v>14</v>
@@ -2487,7 +2457,7 @@
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="121"/>
+      <c r="A59" s="96"/>
       <c r="B59" s="26" t="s">
         <v>59</v>
       </c>
@@ -2499,14 +2469,14 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="122"/>
+      <c r="A60" s="97"/>
       <c r="B60" s="26" t="s">
         <v>60</v>
       </c>
@@ -2519,13 +2489,13 @@
       <c r="E60" s="7"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="87" t="s">
-        <v>98</v>
+      <c r="H60" s="86" t="s">
+        <v>94</v>
       </c>
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="127">
+      <c r="A61" s="103">
         <v>10</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -2542,12 +2512,12 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="127"/>
+      <c r="A62" s="103"/>
       <c r="B62" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
@@ -2556,14 +2526,14 @@
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="127"/>
+      <c r="A63" s="103"/>
       <c r="B63" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>14</v>
@@ -2576,7 +2546,7 @@
       <c r="I63" s="4"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="127"/>
+      <c r="A64" s="103"/>
       <c r="B64" s="4" t="s">
         <v>41</v>
       </c>
@@ -2591,7 +2561,7 @@
       <c r="I64" s="4"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="127"/>
+      <c r="A65" s="103"/>
       <c r="B65" s="4" t="s">
         <v>43</v>
       </c>
@@ -2606,7 +2576,7 @@
       <c r="I65" s="4"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="127"/>
+      <c r="A66" s="103"/>
       <c r="B66" s="4" t="s">
         <v>44</v>
       </c>
@@ -2621,7 +2591,7 @@
       <c r="I66" s="4"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="120">
+      <c r="A67" s="95">
         <v>11</v>
       </c>
       <c r="B67" s="8" t="s">
@@ -2638,9 +2608,9 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="121"/>
+      <c r="A68" s="96"/>
       <c r="B68" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>10</v>
@@ -2657,9 +2627,9 @@
       <c r="I68" s="4"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="121"/>
+      <c r="A69" s="96"/>
       <c r="B69" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>14</v>
@@ -2671,14 +2641,14 @@
       <c r="F69" s="8"/>
       <c r="G69" s="4"/>
       <c r="H69" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="122"/>
+      <c r="A70" s="97"/>
       <c r="B70" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>14</v>
@@ -2693,28 +2663,28 @@
       <c r="I70" s="4"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="114" t="s">
+      <c r="A73" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="114"/>
-      <c r="C73" s="114"/>
-      <c r="D73" s="114"/>
-      <c r="E73" s="114"/>
-      <c r="F73" s="114"/>
-      <c r="G73" s="114"/>
-      <c r="H73" s="114"/>
-      <c r="I73" s="114"/>
+      <c r="B73" s="98"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="98"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="98"/>
+      <c r="G73" s="98"/>
+      <c r="H73" s="98"/>
+      <c r="I73" s="98"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="115"/>
-      <c r="B74" s="115"/>
-      <c r="C74" s="115"/>
-      <c r="D74" s="115"/>
-      <c r="E74" s="115"/>
-      <c r="F74" s="115"/>
-      <c r="G74" s="115"/>
-      <c r="H74" s="115"/>
-      <c r="I74" s="115"/>
+      <c r="A74" s="99"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="39" t="s">
@@ -2794,7 +2764,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="58" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C78" s="59" t="s">
         <v>42</v>
@@ -2807,12 +2777,12 @@
       <c r="I78" s="49"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="88">
+      <c r="A79" s="87">
         <f t="shared" ref="A79:A82" si="3">A78+1</f>
         <v>4</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C79" s="46" t="s">
         <v>14</v>
@@ -2831,8 +2801,8 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B80" s="89" t="s">
-        <v>103</v>
+      <c r="B80" s="88" t="s">
+        <v>99</v>
       </c>
       <c r="C80" s="46" t="s">
         <v>14</v>
@@ -2852,7 +2822,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C81" s="52" t="s">
         <v>14</v>
@@ -2889,28 +2859,28 @@
       <c r="I82" s="44"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="112" t="s">
+      <c r="A86" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="112"/>
-      <c r="C86" s="112"/>
-      <c r="D86" s="112"/>
-      <c r="E86" s="112"/>
-      <c r="F86" s="112"/>
-      <c r="G86" s="112"/>
-      <c r="H86" s="112"/>
-      <c r="I86" s="112"/>
+      <c r="B86" s="104"/>
+      <c r="C86" s="104"/>
+      <c r="D86" s="104"/>
+      <c r="E86" s="104"/>
+      <c r="F86" s="104"/>
+      <c r="G86" s="104"/>
+      <c r="H86" s="104"/>
+      <c r="I86" s="104"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="117"/>
-      <c r="B87" s="117"/>
-      <c r="C87" s="117"/>
-      <c r="D87" s="117"/>
-      <c r="E87" s="117"/>
-      <c r="F87" s="117"/>
-      <c r="G87" s="117"/>
-      <c r="H87" s="117"/>
-      <c r="I87" s="117"/>
+      <c r="A87" s="107"/>
+      <c r="B87" s="107"/>
+      <c r="C87" s="107"/>
+      <c r="D87" s="107"/>
+      <c r="E87" s="107"/>
+      <c r="F87" s="107"/>
+      <c r="G87" s="107"/>
+      <c r="H87" s="107"/>
+      <c r="I87" s="107"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
@@ -2979,8 +2949,8 @@
       <c r="E90" s="32"/>
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
-      <c r="H90" s="128" t="s">
-        <v>144</v>
+      <c r="H90" s="92" t="s">
+        <v>137</v>
       </c>
       <c r="I90" s="30"/>
     </row>
@@ -3054,28 +3024,28 @@
       <c r="A95" s="61"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="112" t="s">
+      <c r="A99" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="112"/>
-      <c r="C99" s="112"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="112"/>
-      <c r="H99" s="112"/>
-      <c r="I99" s="112"/>
+      <c r="B99" s="104"/>
+      <c r="C99" s="104"/>
+      <c r="D99" s="104"/>
+      <c r="E99" s="104"/>
+      <c r="F99" s="104"/>
+      <c r="G99" s="104"/>
+      <c r="H99" s="104"/>
+      <c r="I99" s="104"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="117"/>
-      <c r="B100" s="117"/>
-      <c r="C100" s="117"/>
-      <c r="D100" s="117"/>
-      <c r="E100" s="117"/>
-      <c r="F100" s="117"/>
-      <c r="G100" s="117"/>
-      <c r="H100" s="117"/>
-      <c r="I100" s="117"/>
+      <c r="A100" s="107"/>
+      <c r="B100" s="107"/>
+      <c r="C100" s="107"/>
+      <c r="D100" s="107"/>
+      <c r="E100" s="107"/>
+      <c r="F100" s="107"/>
+      <c r="G100" s="107"/>
+      <c r="H100" s="107"/>
+      <c r="I100" s="107"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
@@ -3198,14 +3168,16 @@
         <v>78</v>
       </c>
       <c r="C106" s="64" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D106" s="65"/>
       <c r="E106" s="66"/>
       <c r="F106" s="63"/>
-      <c r="G106" s="67"/>
+      <c r="G106" s="67">
+        <v>0</v>
+      </c>
       <c r="H106" s="67" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I106" s="63"/>
     </row>
@@ -3231,13 +3203,13 @@
       <c r="I107" s="68"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="123" t="s">
-        <v>80</v>
-      </c>
-      <c r="B111" s="124"/>
-      <c r="C111" s="124"/>
-      <c r="D111" s="124"/>
-      <c r="E111" s="124"/>
+      <c r="A111" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="B111" s="94"/>
+      <c r="C111" s="94"/>
+      <c r="D111" s="94"/>
+      <c r="E111" s="94"/>
       <c r="F111" s="71"/>
       <c r="G111" s="71"/>
       <c r="H111" s="71"/>
@@ -3309,7 +3281,7 @@
       <c r="E114" s="80"/>
       <c r="F114" s="77"/>
       <c r="G114" s="77" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H114" s="77"/>
       <c r="I114" s="77"/>
@@ -3319,7 +3291,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C115" s="78" t="s">
         <v>14</v>
@@ -3330,7 +3302,7 @@
       <c r="E115" s="80"/>
       <c r="F115" s="77"/>
       <c r="G115" s="77" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H115" s="77"/>
       <c r="I115" s="77"/>
@@ -3372,7 +3344,7 @@
       <c r="E117" s="80"/>
       <c r="F117" s="77"/>
       <c r="G117" s="77" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H117" s="62" t="s">
         <v>68</v>
@@ -3401,453 +3373,517 @@
       <c r="I118" s="77"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="82">
+      <c r="A119" s="81">
         <v>7</v>
       </c>
-      <c r="B119" s="82" t="s">
+      <c r="B119" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" s="83"/>
+      <c r="E119" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" s="81"/>
+      <c r="G119" s="81"/>
+      <c r="H119" s="81"/>
+      <c r="I119" s="81"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="81">
+        <v>8</v>
+      </c>
+      <c r="B120" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="C120" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120" s="81"/>
+      <c r="G120" s="81"/>
+      <c r="H120" s="81"/>
+      <c r="I120" s="81"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="81">
+        <v>9</v>
+      </c>
+      <c r="B121" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="83"/>
+      <c r="E121" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="81"/>
+      <c r="G121" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="H121" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="I121" s="81"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="85"/>
+      <c r="B122" s="85"/>
+      <c r="C122" s="85"/>
+      <c r="D122" s="85"/>
+      <c r="E122" s="85"/>
+      <c r="F122" s="85"/>
+      <c r="G122" s="85"/>
+      <c r="H122" s="85"/>
+      <c r="I122" s="85"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="C119" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="D119" s="84"/>
-      <c r="E119" s="85" t="s">
+      <c r="B123" s="111"/>
+      <c r="C123" s="111"/>
+      <c r="D123" s="111"/>
+      <c r="E123" s="111"/>
+      <c r="F123" s="110"/>
+      <c r="G123" s="110"/>
+      <c r="H123" s="110"/>
+      <c r="I123" s="110"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I124" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="38">
+        <v>1</v>
+      </c>
+      <c r="B125" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="112"/>
+      <c r="E125" s="113"/>
+      <c r="F125" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="38"/>
+      <c r="H125" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="38"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="30">
+        <v>2</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C126" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="31">
+        <v>10</v>
+      </c>
+      <c r="E126" s="32"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I126" s="30"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="30">
+        <v>3</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="31">
+        <v>50</v>
+      </c>
+      <c r="E127" s="32"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30"/>
+      <c r="I127" s="30"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="30">
+        <v>4</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="31"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I128" s="30"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="30">
+        <v>5</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="31"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G129" s="30"/>
+      <c r="H129" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I129" s="30"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="30">
+        <v>6</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E130" s="32"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="30"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="30">
+        <v>7</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="31"/>
+      <c r="E131" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="F119" s="82"/>
-      <c r="G119" s="82"/>
-      <c r="H119" s="82"/>
-      <c r="I119" s="82"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="82">
+      <c r="F131" s="30"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="30"/>
+      <c r="I131" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="30">
         <v>8</v>
       </c>
-      <c r="B120" s="82" t="s">
+      <c r="B132" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C132" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="F132" s="30"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="30"/>
+    </row>
+    <row r="133" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="114">
+        <v>9</v>
+      </c>
+      <c r="B133" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="C133" s="116" t="s">
+        <v>89</v>
+      </c>
+      <c r="D133" s="22"/>
+      <c r="E133" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133" s="115"/>
+      <c r="G133" s="115"/>
+      <c r="H133" s="115"/>
+      <c r="I133" s="115" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" s="108" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="117"/>
+      <c r="B134" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C134" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" s="19"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="122"/>
+      <c r="K134" s="122"/>
+      <c r="L134" s="122"/>
+    </row>
+    <row r="135" spans="1:12" s="108" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="118"/>
+      <c r="B135" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C120" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" s="84"/>
-      <c r="E120" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="F120" s="82"/>
-      <c r="G120" s="82"/>
-      <c r="H120" s="82"/>
-      <c r="I120" s="82"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="82">
+      <c r="C135" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D135" s="20"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18">
+        <v>0</v>
+      </c>
+      <c r="H135" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="I135" s="18"/>
+      <c r="J135" s="122"/>
+      <c r="K135" s="122"/>
+      <c r="L135" s="122"/>
+    </row>
+    <row r="136" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="120">
+        <v>10</v>
+      </c>
+      <c r="B136" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C136" s="121" t="s">
+        <v>89</v>
+      </c>
+      <c r="D136" s="62"/>
+      <c r="E136" s="62"/>
+      <c r="F136" s="62"/>
+      <c r="G136" s="62"/>
+      <c r="H136" s="62"/>
+      <c r="I136" s="62"/>
+    </row>
+    <row r="137" spans="1:12" s="126" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A137" s="120"/>
+      <c r="B137" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="82" t="s">
+      <c r="C137" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="123"/>
+      <c r="E137" s="123"/>
+      <c r="F137" s="125" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="123"/>
+      <c r="H137" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" s="123"/>
+    </row>
+    <row r="138" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="120"/>
+      <c r="B138" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C121" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="84"/>
-      <c r="E121" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="F121" s="82"/>
-      <c r="G121" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="H121" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="I121" s="82"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="86"/>
-      <c r="B122" s="86"/>
-      <c r="C122" s="86"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="86"/>
-      <c r="F122" s="86"/>
-      <c r="G122" s="86"/>
-      <c r="H122" s="86"/>
-      <c r="I122" s="86"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="125" t="s">
+      <c r="C138" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="62"/>
+      <c r="E138" s="62"/>
+      <c r="F138" s="62"/>
+      <c r="G138" s="62"/>
+      <c r="H138" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I138" s="62"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="120"/>
+      <c r="B139" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I139" s="18"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" s="120"/>
+      <c r="B140" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B123" s="124"/>
-      <c r="C123" s="124"/>
-      <c r="D123" s="124"/>
-      <c r="E123" s="124"/>
-      <c r="F123" s="81"/>
-      <c r="G123" s="81"/>
-      <c r="H123" s="81"/>
-      <c r="I123" s="81"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="D124" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="E124" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="F124" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="G124" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="H124" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="I124" s="96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="97">
-        <v>1</v>
-      </c>
-      <c r="B125" s="97" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125" s="98"/>
-      <c r="E125" s="99"/>
-      <c r="F125" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" s="97"/>
-      <c r="H125" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="I125" s="97"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="97">
-        <v>2</v>
-      </c>
-      <c r="B126" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="C126" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" s="98">
-        <v>50</v>
-      </c>
-      <c r="E126" s="99"/>
-      <c r="F126" s="97"/>
-      <c r="G126" s="97"/>
-      <c r="H126" s="97"/>
-      <c r="I126" s="97"/>
-    </row>
-    <row r="127" spans="1:9" s="109" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="105">
-        <v>3</v>
-      </c>
-      <c r="B127" s="105" t="s">
+      <c r="C140" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="18"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="120"/>
+      <c r="B141" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C127" s="106" t="s">
+      <c r="C141" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D127" s="107"/>
-      <c r="E127" s="108"/>
-      <c r="F127" s="105"/>
-      <c r="G127" s="105">
-        <v>0</v>
-      </c>
-      <c r="H127" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="I127" s="105"/>
-    </row>
-    <row r="128" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="100">
-        <v>4</v>
-      </c>
-      <c r="B128" s="100" t="s">
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="120"/>
+      <c r="B142" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C128" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="D128" s="102"/>
-      <c r="E128" s="103"/>
-      <c r="F128" s="100"/>
-      <c r="G128" s="100">
-        <v>0</v>
-      </c>
-      <c r="H128" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="I128" s="100"/>
-    </row>
-    <row r="129" spans="1:9" s="109" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="105">
-        <v>5</v>
-      </c>
-      <c r="B129" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="C129" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="D129" s="107"/>
-      <c r="E129" s="108"/>
-      <c r="F129" s="105"/>
-      <c r="G129" s="105">
-        <v>0</v>
-      </c>
-      <c r="H129" s="105"/>
-      <c r="I129" s="105"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="97">
-        <v>6</v>
-      </c>
-      <c r="B130" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="C130" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" s="98"/>
-      <c r="E130" s="99"/>
-      <c r="F130" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="G130" s="97"/>
-      <c r="H130" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="I130" s="97"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="97">
-        <v>7</v>
-      </c>
-      <c r="B131" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="C131" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" s="98"/>
-      <c r="E131" s="99"/>
-      <c r="F131" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="G131" s="97"/>
-      <c r="H131" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="I131" s="97"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="97">
-        <v>8</v>
-      </c>
-      <c r="B132" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C132" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="E132" s="99"/>
-      <c r="F132" s="97"/>
-      <c r="G132" s="97"/>
-      <c r="H132" s="97"/>
-      <c r="I132" s="97"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="97">
-        <v>9</v>
-      </c>
-      <c r="B133" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="C133" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="D133" s="98"/>
-      <c r="E133" s="99"/>
-      <c r="F133" s="97"/>
-      <c r="G133" s="97"/>
-      <c r="H133" s="97"/>
-      <c r="I133" s="97" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="97">
-        <v>10</v>
-      </c>
-      <c r="B134" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="C134" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" s="98"/>
-      <c r="E134" s="99"/>
-      <c r="F134" s="97"/>
-      <c r="G134" s="97"/>
-      <c r="H134" s="97"/>
-      <c r="I134" s="97"/>
-    </row>
-    <row r="135" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="97">
-        <v>11</v>
-      </c>
-      <c r="B135" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="C135" s="99" t="s">
-        <v>93</v>
-      </c>
-      <c r="D135" s="98"/>
-      <c r="E135" s="99"/>
-      <c r="F135" s="97"/>
-      <c r="G135" s="97"/>
-      <c r="H135" s="97"/>
-      <c r="I135" s="97" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" s="11" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="110">
-        <v>12</v>
-      </c>
-      <c r="B136" s="110" t="s">
-        <v>137</v>
-      </c>
-      <c r="C136" s="111" t="s">
-        <v>93</v>
-      </c>
-      <c r="D136" s="110"/>
-      <c r="E136" s="110"/>
-      <c r="F136" s="110"/>
-      <c r="G136" s="110"/>
-      <c r="H136" s="110"/>
-      <c r="I136" s="110"/>
-    </row>
-    <row r="137" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="94"/>
-      <c r="B137" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="C137" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" s="94"/>
-      <c r="E137" s="94"/>
-      <c r="F137" s="94"/>
-      <c r="G137" s="94"/>
-      <c r="H137" s="94"/>
-      <c r="I137" s="94"/>
-    </row>
-    <row r="138" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="94"/>
-      <c r="B138" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="C138" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="D138" s="94"/>
-      <c r="E138" s="94"/>
-      <c r="F138" s="94"/>
-      <c r="G138" s="94"/>
-      <c r="H138" s="94"/>
-      <c r="I138" s="94"/>
-    </row>
-    <row r="139" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="94"/>
-      <c r="B139" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="C139" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="D139" s="94"/>
-      <c r="E139" s="94"/>
-      <c r="F139" s="94"/>
-      <c r="G139" s="94"/>
-      <c r="H139" s="94"/>
-      <c r="I139" s="94"/>
-    </row>
-    <row r="140" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="94"/>
-      <c r="B140" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="C140" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="D140" s="94"/>
-      <c r="E140" s="94"/>
-      <c r="F140" s="94"/>
-      <c r="G140" s="94"/>
-      <c r="H140" s="94"/>
-      <c r="I140" s="94"/>
-    </row>
-    <row r="141" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="93" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B143" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B144" s="1" t="s">
-        <v>132</v>
+      <c r="C142" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B143" s="119" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B145" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B146" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="B148" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B151" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>126</v>
       </c>
     </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="A12:I13"/>
+    <mergeCell ref="A24:I25"/>
+    <mergeCell ref="A86:I87"/>
+    <mergeCell ref="A99:I100"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="A33:A42"/>
     <mergeCell ref="A111:E111"/>
     <mergeCell ref="A123:E123"/>
     <mergeCell ref="A43:A53"/>
@@ -3856,13 +3892,6 @@
     <mergeCell ref="A61:A66"/>
     <mergeCell ref="A54:A60"/>
     <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="A12:I13"/>
-    <mergeCell ref="A24:I25"/>
-    <mergeCell ref="A86:I87"/>
-    <mergeCell ref="A99:I100"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="A33:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3889,22 +3918,22 @@
   <sheetData>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
         <v>108</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" t="s">
         <v>109</v>
-      </c>
-      <c r="D6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Database ToCoShopvs.xlsx
+++ b/Database ToCoShopvs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="152">
   <si>
     <t>No.</t>
   </si>
@@ -329,24 +329,6 @@
     <t>firstName + lastName from Employees(Id)</t>
   </si>
   <si>
-    <t>Mã đơn hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày đặt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tổng tiền </t>
-  </si>
-  <si>
-    <t>Trạng thái</t>
-  </si>
-  <si>
-    <t>Ngày gửi</t>
-  </si>
-  <si>
-    <t>Ngày nhận</t>
-  </si>
-  <si>
     <t>SendingDate</t>
   </si>
   <si>
@@ -428,9 +410,6 @@
     <t>KHONG_XAC_DINH</t>
   </si>
   <si>
-    <t>Not allow update -UNIQUE</t>
-  </si>
-  <si>
     <t>imageUrls</t>
   </si>
   <si>
@@ -456,13 +435,49 @@
   </si>
   <si>
     <t>["Xanh Navy", "Vang", "Xam", "Den", "Hong", "Trang"]</t>
+  </si>
+  <si>
+    <t>Giá thấp đến cao, lọc ra mức giá thấp nhất cho mỗi sản phẩm- minTotalPrice và sắp xếp sort: {minTotalPrice: 1}</t>
+  </si>
+  <si>
+    <t>Giá cao đến thấp lọc ra mức giá cao nhất cho mỗi sản phẩm- maxTotalPrice và sắp xếp sort: maxTotalPrice : -1}</t>
+  </si>
+  <si>
+    <t>validate</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Dùng req.query</t>
+  </si>
+  <si>
+    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc]</t>
+  </si>
+  <si>
+    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục( truyền params categoryId)</t>
+  </si>
+  <si>
+    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] thuộc về một nhà phân phối( dựa theo params supplierId)</t>
+  </si>
+  <si>
+    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục theo mức giá tăng dần- giảm dần</t>
+  </si>
+  <si>
+    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục theo mức giảm %- tương tự bài 4- minDiscount vs maxDiscount</t>
+  </si>
+  <si>
+    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục nổi bật- theo id sản phẩm( hàng mới cập nhật)</t>
+  </si>
+  <si>
+    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] có trường mảng Array- promotionPosition- chứa cụm từ "Giảm sốc trong ngày" hoặc "Gợi ý trong tuần"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +573,20 @@
     <font>
       <sz val="12"/>
       <color rgb="FF202124"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -814,7 +843,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1019,79 +1048,19 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1102,6 +1071,76 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1410,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1429,28 +1468,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -1591,28 +1630,28 @@
       <c r="I9" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="99"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
@@ -1680,7 +1719,9 @@
       <c r="E16" s="48"/>
       <c r="F16" s="49"/>
       <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
+      <c r="H16" s="44" t="s">
+        <v>15</v>
+      </c>
       <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1789,28 +1830,28 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
     </row>
     <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="106"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -1868,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>14</v>
@@ -1880,7 +1921,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I28" s="4"/>
     </row>
@@ -1902,7 +1943,7 @@
         <v>32</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I29" s="4"/>
     </row>
@@ -1912,7 +1953,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>31</v>
@@ -1924,7 +1965,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I30" s="4"/>
     </row>
@@ -1934,7 +1975,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>31</v>
@@ -1946,7 +1987,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I31" s="4"/>
     </row>
@@ -1973,7 +2014,7 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="95">
+      <c r="A33" s="105">
         <v>7</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -1990,7 +2031,7 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="96"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="4" t="s">
         <v>26</v>
       </c>
@@ -2009,7 +2050,7 @@
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="96"/>
+      <c r="A35" s="106"/>
       <c r="B35" s="4" t="s">
         <v>25</v>
       </c>
@@ -2030,7 +2071,7 @@
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="96"/>
+      <c r="A36" s="106"/>
       <c r="B36" s="4" t="s">
         <v>54</v>
       </c>
@@ -2043,13 +2084,13 @@
       <c r="E36" s="7"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="96"/>
+      <c r="A37" s="106"/>
       <c r="B37" s="4" t="s">
         <v>53</v>
       </c>
@@ -2062,13 +2103,13 @@
       <c r="E37" s="7"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A38" s="96"/>
+      <c r="A38" s="106"/>
       <c r="B38" s="23" t="s">
         <v>27</v>
       </c>
@@ -2085,7 +2126,7 @@
       <c r="I38" s="91"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="96"/>
+      <c r="A39" s="106"/>
       <c r="B39" s="26" t="s">
         <v>51</v>
       </c>
@@ -2104,9 +2145,9 @@
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="96"/>
+      <c r="A40" s="106"/>
       <c r="B40" s="26" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>14</v>
@@ -2123,9 +2164,9 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="96"/>
+      <c r="A41" s="106"/>
       <c r="B41" s="26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>14</v>
@@ -2142,7 +2183,7 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="97"/>
+      <c r="A42" s="107"/>
       <c r="B42" s="26" t="s">
         <v>52</v>
       </c>
@@ -2155,13 +2196,13 @@
       <c r="E42" s="7"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="95">
+      <c r="A43" s="105">
         <v>8</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -2180,7 +2221,7 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="96"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2199,7 +2240,7 @@
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="96"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="4" t="s">
         <v>54</v>
       </c>
@@ -2212,13 +2253,13 @@
       <c r="E45" s="7"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="96"/>
+      <c r="A46" s="106"/>
       <c r="B46" s="4" t="s">
         <v>53</v>
       </c>
@@ -2231,13 +2272,13 @@
       <c r="E46" s="7"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="96"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="4" t="s">
         <v>26</v>
       </c>
@@ -2256,7 +2297,7 @@
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A48" s="96"/>
+      <c r="A48" s="106"/>
       <c r="B48" s="23" t="s">
         <v>27</v>
       </c>
@@ -2267,15 +2308,15 @@
       <c r="E48" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="101" t="s">
+      <c r="F48" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="102"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="119"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="96"/>
+      <c r="A49" s="106"/>
       <c r="B49" s="26" t="s">
         <v>51</v>
       </c>
@@ -2294,9 +2335,9 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="96"/>
+      <c r="A50" s="106"/>
       <c r="B50" s="26" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>14</v>
@@ -2313,9 +2354,9 @@
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="96"/>
+      <c r="A51" s="106"/>
       <c r="B51" s="26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>14</v>
@@ -2332,7 +2373,7 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="96"/>
+      <c r="A52" s="106"/>
       <c r="B52" s="26" t="s">
         <v>52</v>
       </c>
@@ -2345,13 +2386,13 @@
       <c r="E52" s="7"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="97"/>
+      <c r="A53" s="107"/>
       <c r="B53" s="4" t="s">
         <v>49</v>
       </c>
@@ -2370,7 +2411,7 @@
       <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="95">
+      <c r="A54" s="105">
         <v>9</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -2389,7 +2430,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="96"/>
+      <c r="A55" s="106"/>
       <c r="B55" s="4" t="s">
         <v>55</v>
       </c>
@@ -2406,7 +2447,7 @@
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" s="11" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A56" s="96"/>
+      <c r="A56" s="106"/>
       <c r="B56" s="23" t="s">
         <v>57</v>
       </c>
@@ -2414,16 +2455,16 @@
         <v>38</v>
       </c>
       <c r="D56" s="25"/>
-      <c r="E56" s="100" t="s">
+      <c r="E56" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="102"/>
+      <c r="F56" s="118"/>
+      <c r="G56" s="118"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="119"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="96"/>
+      <c r="A57" s="106"/>
       <c r="B57" s="26" t="s">
         <v>58</v>
       </c>
@@ -2440,7 +2481,7 @@
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="96"/>
+      <c r="A58" s="106"/>
       <c r="B58" s="26" t="s">
         <v>91</v>
       </c>
@@ -2457,7 +2498,7 @@
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="96"/>
+      <c r="A59" s="106"/>
       <c r="B59" s="26" t="s">
         <v>59</v>
       </c>
@@ -2476,7 +2517,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="97"/>
+      <c r="A60" s="107"/>
       <c r="B60" s="26" t="s">
         <v>60</v>
       </c>
@@ -2495,7 +2536,7 @@
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="103">
+      <c r="A61" s="125">
         <v>10</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -2512,12 +2553,12 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="103"/>
+      <c r="A62" s="125"/>
       <c r="B62" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
@@ -2526,14 +2567,14 @@
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="103"/>
+      <c r="A63" s="125"/>
       <c r="B63" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>14</v>
@@ -2546,7 +2587,7 @@
       <c r="I63" s="4"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="103"/>
+      <c r="A64" s="125"/>
       <c r="B64" s="4" t="s">
         <v>41</v>
       </c>
@@ -2561,7 +2602,7 @@
       <c r="I64" s="4"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="103"/>
+      <c r="A65" s="125"/>
       <c r="B65" s="4" t="s">
         <v>43</v>
       </c>
@@ -2576,7 +2617,7 @@
       <c r="I65" s="4"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="103"/>
+      <c r="A66" s="125"/>
       <c r="B66" s="4" t="s">
         <v>44</v>
       </c>
@@ -2591,7 +2632,7 @@
       <c r="I66" s="4"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="95">
+      <c r="A67" s="105">
         <v>11</v>
       </c>
       <c r="B67" s="8" t="s">
@@ -2608,7 +2649,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="96"/>
+      <c r="A68" s="106"/>
       <c r="B68" s="4" t="s">
         <v>101</v>
       </c>
@@ -2627,7 +2668,7 @@
       <c r="I68" s="4"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="96"/>
+      <c r="A69" s="106"/>
       <c r="B69" s="4" t="s">
         <v>102</v>
       </c>
@@ -2646,7 +2687,7 @@
       <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="97"/>
+      <c r="A70" s="107"/>
       <c r="B70" s="4" t="s">
         <v>93</v>
       </c>
@@ -2663,28 +2704,28 @@
       <c r="I70" s="4"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="98" t="s">
+      <c r="A73" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="98"/>
-      <c r="C73" s="98"/>
-      <c r="D73" s="98"/>
-      <c r="E73" s="98"/>
-      <c r="F73" s="98"/>
-      <c r="G73" s="98"/>
-      <c r="H73" s="98"/>
-      <c r="I73" s="98"/>
+      <c r="B73" s="114"/>
+      <c r="C73" s="114"/>
+      <c r="D73" s="114"/>
+      <c r="E73" s="114"/>
+      <c r="F73" s="114"/>
+      <c r="G73" s="114"/>
+      <c r="H73" s="114"/>
+      <c r="I73" s="114"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="99"/>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="99"/>
+      <c r="A74" s="115"/>
+      <c r="B74" s="115"/>
+      <c r="C74" s="115"/>
+      <c r="D74" s="115"/>
+      <c r="E74" s="115"/>
+      <c r="F74" s="115"/>
+      <c r="G74" s="115"/>
+      <c r="H74" s="115"/>
+      <c r="I74" s="115"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="39" t="s">
@@ -2859,28 +2900,28 @@
       <c r="I82" s="44"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="104" t="s">
+      <c r="A86" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="104"/>
-      <c r="C86" s="104"/>
-      <c r="D86" s="104"/>
-      <c r="E86" s="104"/>
-      <c r="F86" s="104"/>
-      <c r="G86" s="104"/>
-      <c r="H86" s="104"/>
-      <c r="I86" s="104"/>
+      <c r="B86" s="112"/>
+      <c r="C86" s="112"/>
+      <c r="D86" s="112"/>
+      <c r="E86" s="112"/>
+      <c r="F86" s="112"/>
+      <c r="G86" s="112"/>
+      <c r="H86" s="112"/>
+      <c r="I86" s="112"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="107"/>
-      <c r="B87" s="107"/>
-      <c r="C87" s="107"/>
-      <c r="D87" s="107"/>
-      <c r="E87" s="107"/>
-      <c r="F87" s="107"/>
-      <c r="G87" s="107"/>
-      <c r="H87" s="107"/>
-      <c r="I87" s="107"/>
+      <c r="A87" s="117"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="117"/>
+      <c r="D87" s="117"/>
+      <c r="E87" s="117"/>
+      <c r="F87" s="117"/>
+      <c r="G87" s="117"/>
+      <c r="H87" s="117"/>
+      <c r="I87" s="117"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
@@ -2949,8 +2990,8 @@
       <c r="E90" s="32"/>
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
-      <c r="H90" s="92" t="s">
-        <v>137</v>
+      <c r="H90" s="128" t="s">
+        <v>15</v>
       </c>
       <c r="I90" s="30"/>
     </row>
@@ -3024,28 +3065,28 @@
       <c r="A95" s="61"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="104" t="s">
+      <c r="A99" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="104"/>
-      <c r="C99" s="104"/>
-      <c r="D99" s="104"/>
-      <c r="E99" s="104"/>
-      <c r="F99" s="104"/>
-      <c r="G99" s="104"/>
-      <c r="H99" s="104"/>
-      <c r="I99" s="104"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
+      <c r="F99" s="112"/>
+      <c r="G99" s="112"/>
+      <c r="H99" s="112"/>
+      <c r="I99" s="112"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="107"/>
-      <c r="B100" s="107"/>
-      <c r="C100" s="107"/>
-      <c r="D100" s="107"/>
-      <c r="E100" s="107"/>
-      <c r="F100" s="107"/>
-      <c r="G100" s="107"/>
-      <c r="H100" s="107"/>
-      <c r="I100" s="107"/>
+      <c r="A100" s="117"/>
+      <c r="B100" s="117"/>
+      <c r="C100" s="117"/>
+      <c r="D100" s="117"/>
+      <c r="E100" s="117"/>
+      <c r="F100" s="117"/>
+      <c r="G100" s="117"/>
+      <c r="H100" s="117"/>
+      <c r="I100" s="117"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
@@ -3177,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="67" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I106" s="63"/>
     </row>
@@ -3203,13 +3244,13 @@
       <c r="I107" s="68"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="93" t="s">
+      <c r="A111" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="B111" s="94"/>
-      <c r="C111" s="94"/>
-      <c r="D111" s="94"/>
-      <c r="E111" s="94"/>
+      <c r="B111" s="121"/>
+      <c r="C111" s="121"/>
+      <c r="D111" s="121"/>
+      <c r="E111" s="121"/>
       <c r="F111" s="71"/>
       <c r="G111" s="71"/>
       <c r="H111" s="71"/>
@@ -3281,7 +3322,7 @@
       <c r="E114" s="80"/>
       <c r="F114" s="77"/>
       <c r="G114" s="77" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H114" s="77"/>
       <c r="I114" s="77"/>
@@ -3302,7 +3343,7 @@
       <c r="E115" s="80"/>
       <c r="F115" s="77"/>
       <c r="G115" s="77" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H115" s="77"/>
       <c r="I115" s="77"/>
@@ -3344,7 +3385,7 @@
       <c r="E117" s="80"/>
       <c r="F117" s="77"/>
       <c r="G117" s="77" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H117" s="62" t="s">
         <v>68</v>
@@ -3396,7 +3437,7 @@
         <v>8</v>
       </c>
       <c r="B120" s="81" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C120" s="82" t="s">
         <v>14</v>
@@ -3417,7 +3458,7 @@
         <v>9</v>
       </c>
       <c r="B121" s="81" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C121" s="82" t="s">
         <v>14</v>
@@ -3428,10 +3469,10 @@
       </c>
       <c r="F121" s="81"/>
       <c r="G121" s="81" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H121" s="81" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I121" s="81"/>
     </row>
@@ -3447,17 +3488,17 @@
       <c r="I122" s="85"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="109" t="s">
+      <c r="A123" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="B123" s="111"/>
-      <c r="C123" s="111"/>
-      <c r="D123" s="111"/>
-      <c r="E123" s="111"/>
-      <c r="F123" s="110"/>
-      <c r="G123" s="110"/>
-      <c r="H123" s="110"/>
-      <c r="I123" s="110"/>
+      <c r="B123" s="123"/>
+      <c r="C123" s="123"/>
+      <c r="D123" s="123"/>
+      <c r="E123" s="123"/>
+      <c r="F123" s="93"/>
+      <c r="G123" s="93"/>
+      <c r="H123" s="93"/>
+      <c r="I123" s="93"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="29" t="s">
@@ -3498,8 +3539,8 @@
       <c r="C125" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D125" s="112"/>
-      <c r="E125" s="113"/>
+      <c r="D125" s="94"/>
+      <c r="E125" s="95"/>
       <c r="F125" s="38" t="s">
         <v>11</v>
       </c>
@@ -3514,7 +3555,7 @@
         <v>2</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C126" s="29" t="s">
         <v>14</v>
@@ -3621,7 +3662,7 @@
         <v>19</v>
       </c>
       <c r="D131" s="31"/>
-      <c r="E131" s="116" t="s">
+      <c r="E131" s="97" t="s">
         <v>17</v>
       </c>
       <c r="F131" s="30"/>
@@ -3644,7 +3685,7 @@
       <c r="D132" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E132" s="116" t="s">
+      <c r="E132" s="97" t="s">
         <v>17</v>
       </c>
       <c r="F132" s="30"/>
@@ -3653,30 +3694,30 @@
       <c r="I132" s="30"/>
     </row>
     <row r="133" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="114">
+      <c r="A133" s="108">
         <v>9</v>
       </c>
-      <c r="B133" s="115" t="s">
-        <v>138</v>
-      </c>
-      <c r="C133" s="116" t="s">
+      <c r="B133" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="C133" s="97" t="s">
         <v>89</v>
       </c>
       <c r="D133" s="22"/>
-      <c r="E133" s="116" t="s">
+      <c r="E133" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="115"/>
-      <c r="G133" s="115"/>
-      <c r="H133" s="115"/>
-      <c r="I133" s="115" t="s">
+      <c r="F133" s="96"/>
+      <c r="G133" s="96"/>
+      <c r="H133" s="96"/>
+      <c r="I133" s="96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="108" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="117"/>
+    <row r="134" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="109"/>
       <c r="B134" s="18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C134" s="29" t="s">
         <v>14</v>
@@ -3689,14 +3730,14 @@
       <c r="G134" s="18"/>
       <c r="H134" s="18"/>
       <c r="I134" s="18"/>
-      <c r="J134" s="122"/>
-      <c r="K134" s="122"/>
-      <c r="L134" s="122"/>
-    </row>
-    <row r="135" spans="1:12" s="108" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="118"/>
+      <c r="J134" s="100"/>
+      <c r="K134" s="100"/>
+      <c r="L134" s="100"/>
+    </row>
+    <row r="135" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="110"/>
       <c r="B135" s="18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C135" s="19" t="s">
         <v>45</v>
@@ -3708,21 +3749,21 @@
         <v>0</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I135" s="18"/>
-      <c r="J135" s="122"/>
-      <c r="K135" s="122"/>
-      <c r="L135" s="122"/>
+      <c r="J135" s="100"/>
+      <c r="K135" s="100"/>
+      <c r="L135" s="100"/>
     </row>
     <row r="136" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="120">
+      <c r="A136" s="111">
         <v>10</v>
       </c>
       <c r="B136" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C136" s="121" t="s">
+        <v>134</v>
+      </c>
+      <c r="C136" s="99" t="s">
         <v>89</v>
       </c>
       <c r="D136" s="62"/>
@@ -3732,29 +3773,29 @@
       <c r="H136" s="62"/>
       <c r="I136" s="62"/>
     </row>
-    <row r="137" spans="1:12" s="126" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A137" s="120"/>
-      <c r="B137" s="123" t="s">
+    <row r="137" spans="1:12" s="104" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A137" s="111"/>
+      <c r="B137" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C137" s="124" t="s">
+      <c r="C137" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="D137" s="123"/>
-      <c r="E137" s="123"/>
-      <c r="F137" s="125" t="s">
+      <c r="D137" s="101"/>
+      <c r="E137" s="101"/>
+      <c r="F137" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G137" s="123"/>
-      <c r="H137" s="125" t="s">
+      <c r="G137" s="101"/>
+      <c r="H137" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="I137" s="123"/>
+      <c r="I137" s="101"/>
     </row>
     <row r="138" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="120"/>
+      <c r="A138" s="111"/>
       <c r="B138" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C138" s="19" t="s">
         <v>14</v>
@@ -3764,14 +3805,14 @@
       <c r="F138" s="62"/>
       <c r="G138" s="62"/>
       <c r="H138" s="18" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I138" s="62"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A139" s="120"/>
+      <c r="A139" s="111"/>
       <c r="B139" s="18" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C139" s="19" t="s">
         <v>14</v>
@@ -3781,12 +3822,12 @@
       <c r="F139" s="18"/>
       <c r="G139" s="18"/>
       <c r="H139" s="18" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I139" s="18"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A140" s="120"/>
+      <c r="A140" s="111"/>
       <c r="B140" s="18" t="s">
         <v>83</v>
       </c>
@@ -3801,7 +3842,7 @@
       <c r="I140" s="18"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" s="120"/>
+      <c r="A141" s="111"/>
       <c r="B141" s="18" t="s">
         <v>43</v>
       </c>
@@ -3816,7 +3857,7 @@
       <c r="I141" s="18"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" s="120"/>
+      <c r="A142" s="111"/>
       <c r="B142" s="18" t="s">
         <v>44</v>
       </c>
@@ -3831,50 +3872,53 @@
       <c r="I142" s="18"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B143" s="119" t="s">
-        <v>130</v>
+      <c r="B143" s="98" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B145" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B146" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B147" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B148" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B153" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B155" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A67:A70"/>
     <mergeCell ref="A133:A135"/>
     <mergeCell ref="A136:A142"/>
     <mergeCell ref="A2:I3"/>
@@ -3889,9 +3933,6 @@
     <mergeCell ref="A43:A53"/>
     <mergeCell ref="A73:I74"/>
     <mergeCell ref="E56:I56"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A67:A70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3900,43 +3941,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:G6"/>
+  <dimension ref="A6:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="130.21875" style="129" customWidth="1"/>
     <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" t="s">
-        <v>109</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="126">
+        <v>1</v>
+      </c>
+      <c r="B7" s="129" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="126">
+        <f>A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="129" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="126">
+        <f t="shared" ref="A9:A14" si="0">A8+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="129" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="127">
+        <f>A9+1</f>
+        <v>4</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="127"/>
+      <c r="B11" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="127"/>
+      <c r="B12" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="126">
+        <f>A10+1</f>
+        <v>5</v>
+      </c>
+      <c r="B13" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="126">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="126">
+        <v>7</v>
+      </c>
+      <c r="B15" s="129" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:A12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database ToCoShopvs.xlsx
+++ b/Database ToCoShopvs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="154">
   <si>
     <t>No.</t>
   </si>
@@ -437,12 +437,6 @@
     <t>["Xanh Navy", "Vang", "Xam", "Den", "Hong", "Trang"]</t>
   </si>
   <si>
-    <t>Giá thấp đến cao, lọc ra mức giá thấp nhất cho mỗi sản phẩm- minTotalPrice và sắp xếp sort: {minTotalPrice: 1}</t>
-  </si>
-  <si>
-    <t>Giá cao đến thấp lọc ra mức giá cao nhất cho mỗi sản phẩm- maxTotalPrice và sắp xếp sort: maxTotalPrice : -1}</t>
-  </si>
-  <si>
     <t>validate</t>
   </si>
   <si>
@@ -455,22 +449,34 @@
     <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc]</t>
   </si>
   <si>
-    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục( truyền params categoryId)</t>
-  </si>
-  <si>
-    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] thuộc về một nhà phân phối( dựa theo params supplierId)</t>
-  </si>
-  <si>
     <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục theo mức giá tăng dần- giảm dần</t>
   </si>
   <si>
-    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục theo mức giảm %- tương tự bài 4- minDiscount vs maxDiscount</t>
-  </si>
-  <si>
-    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục nổi bật- theo id sản phẩm( hàng mới cập nhật)</t>
-  </si>
-  <si>
-    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] có trường mảng Array- promotionPosition- chứa cụm từ "Giảm sốc trong ngày" hoặc "Gợi ý trong tuần"</t>
+    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho &gt;0 và totalPrice- giá sản phẩm theo mỗi [size và màu sắc]</t>
+  </si>
+  <si>
+    <t>Hien thi o tocoshop</t>
+  </si>
+  <si>
+    <t>Giá thấp đến cao, lọc ra mức giá thấp nhất cho mỗi sản phẩm- minTotalPrice và sắp xếp sort: {minTotalPrice: 1} || StockTotal&gt;0</t>
+  </si>
+  <si>
+    <t>Giá cao đến thấp lọc ra mức giá cao nhất cho mỗi sản phẩm- maxTotalPrice và sắp xếp sort: maxTotalPrice : -1}|| StockTotal&gt;0</t>
+  </si>
+  <si>
+    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục theo mức giảm %- tương tự bài 4- minDiscount vs maxDiscount || StockTotal&gt;0</t>
+  </si>
+  <si>
+    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục nổi bật- theo id sản phẩm( hàng mới cập nhật) || StockTotal&gt;0</t>
+  </si>
+  <si>
+    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục( truyền params categoryId) || StockTotal&gt;0</t>
+  </si>
+  <si>
+    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] thuộc về một nhà phân phối( dựa theo params supplierId) || StockTotal&gt;0</t>
+  </si>
+  <si>
+    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] có trường mảng Array- promotionPosition- chứa cụm từ "Giảm sốc trong ngày" hoặc "Gợi ý trong tuần" || StockTotal&gt;0</t>
   </si>
 </sst>
 </file>
@@ -591,7 +597,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,6 +662,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -843,7 +855,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1071,6 +1083,38 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1080,6 +1124,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1091,30 +1141,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1124,23 +1150,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1468,28 +1485,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="113"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -1630,28 +1647,28 @@
       <c r="I9" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
@@ -1830,28 +1847,28 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="116" t="s">
+      <c r="A24" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
     </row>
     <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="116"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -2014,7 +2031,7 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="105">
+      <c r="A33" s="117">
         <v>7</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -2031,7 +2048,7 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="106"/>
+      <c r="A34" s="118"/>
       <c r="B34" s="4" t="s">
         <v>26</v>
       </c>
@@ -2050,7 +2067,7 @@
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="106"/>
+      <c r="A35" s="118"/>
       <c r="B35" s="4" t="s">
         <v>25</v>
       </c>
@@ -2071,7 +2088,7 @@
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="106"/>
+      <c r="A36" s="118"/>
       <c r="B36" s="4" t="s">
         <v>54</v>
       </c>
@@ -2090,7 +2107,7 @@
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="106"/>
+      <c r="A37" s="118"/>
       <c r="B37" s="4" t="s">
         <v>53</v>
       </c>
@@ -2109,7 +2126,7 @@
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A38" s="106"/>
+      <c r="A38" s="118"/>
       <c r="B38" s="23" t="s">
         <v>27</v>
       </c>
@@ -2126,7 +2143,7 @@
       <c r="I38" s="91"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="106"/>
+      <c r="A39" s="118"/>
       <c r="B39" s="26" t="s">
         <v>51</v>
       </c>
@@ -2145,7 +2162,7 @@
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="106"/>
+      <c r="A40" s="118"/>
       <c r="B40" s="26" t="s">
         <v>109</v>
       </c>
@@ -2164,7 +2181,7 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="106"/>
+      <c r="A41" s="118"/>
       <c r="B41" s="26" t="s">
         <v>110</v>
       </c>
@@ -2183,7 +2200,7 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="107"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="26" t="s">
         <v>52</v>
       </c>
@@ -2202,7 +2219,7 @@
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="105">
+      <c r="A43" s="117">
         <v>8</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -2221,7 +2238,7 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="106"/>
+      <c r="A44" s="118"/>
       <c r="B44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2240,7 +2257,7 @@
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="106"/>
+      <c r="A45" s="118"/>
       <c r="B45" s="4" t="s">
         <v>54</v>
       </c>
@@ -2259,7 +2276,7 @@
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="106"/>
+      <c r="A46" s="118"/>
       <c r="B46" s="4" t="s">
         <v>53</v>
       </c>
@@ -2278,7 +2295,7 @@
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="106"/>
+      <c r="A47" s="118"/>
       <c r="B47" s="4" t="s">
         <v>26</v>
       </c>
@@ -2297,7 +2314,7 @@
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A48" s="106"/>
+      <c r="A48" s="118"/>
       <c r="B48" s="23" t="s">
         <v>27</v>
       </c>
@@ -2308,15 +2325,15 @@
       <c r="E48" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="118" t="s">
+      <c r="F48" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="G48" s="118"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="119"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="116"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="106"/>
+      <c r="A49" s="118"/>
       <c r="B49" s="26" t="s">
         <v>51</v>
       </c>
@@ -2335,7 +2352,7 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="106"/>
+      <c r="A50" s="118"/>
       <c r="B50" s="26" t="s">
         <v>109</v>
       </c>
@@ -2354,7 +2371,7 @@
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="106"/>
+      <c r="A51" s="118"/>
       <c r="B51" s="26" t="s">
         <v>110</v>
       </c>
@@ -2373,7 +2390,7 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="106"/>
+      <c r="A52" s="118"/>
       <c r="B52" s="26" t="s">
         <v>52</v>
       </c>
@@ -2392,7 +2409,7 @@
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="107"/>
+      <c r="A53" s="119"/>
       <c r="B53" s="4" t="s">
         <v>49</v>
       </c>
@@ -2411,7 +2428,7 @@
       <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="105">
+      <c r="A54" s="117">
         <v>9</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -2430,7 +2447,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="106"/>
+      <c r="A55" s="118"/>
       <c r="B55" s="4" t="s">
         <v>55</v>
       </c>
@@ -2447,7 +2464,7 @@
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" s="11" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A56" s="106"/>
+      <c r="A56" s="118"/>
       <c r="B56" s="23" t="s">
         <v>57</v>
       </c>
@@ -2455,16 +2472,16 @@
         <v>38</v>
       </c>
       <c r="D56" s="25"/>
-      <c r="E56" s="124" t="s">
+      <c r="E56" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="118"/>
-      <c r="G56" s="118"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="119"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="115"/>
+      <c r="I56" s="116"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="106"/>
+      <c r="A57" s="118"/>
       <c r="B57" s="26" t="s">
         <v>58</v>
       </c>
@@ -2481,7 +2498,7 @@
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="106"/>
+      <c r="A58" s="118"/>
       <c r="B58" s="26" t="s">
         <v>91</v>
       </c>
@@ -2498,7 +2515,7 @@
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="106"/>
+      <c r="A59" s="118"/>
       <c r="B59" s="26" t="s">
         <v>59</v>
       </c>
@@ -2517,7 +2534,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="107"/>
+      <c r="A60" s="119"/>
       <c r="B60" s="26" t="s">
         <v>60</v>
       </c>
@@ -2536,7 +2553,7 @@
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="125">
+      <c r="A61" s="121">
         <v>10</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -2553,7 +2570,7 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="125"/>
+      <c r="A62" s="121"/>
       <c r="B62" s="4" t="s">
         <v>112</v>
       </c>
@@ -2572,7 +2589,7 @@
       <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="125"/>
+      <c r="A63" s="121"/>
       <c r="B63" s="4" t="s">
         <v>117</v>
       </c>
@@ -2587,7 +2604,7 @@
       <c r="I63" s="4"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="125"/>
+      <c r="A64" s="121"/>
       <c r="B64" s="4" t="s">
         <v>41</v>
       </c>
@@ -2602,7 +2619,7 @@
       <c r="I64" s="4"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="125"/>
+      <c r="A65" s="121"/>
       <c r="B65" s="4" t="s">
         <v>43</v>
       </c>
@@ -2617,7 +2634,7 @@
       <c r="I65" s="4"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="125"/>
+      <c r="A66" s="121"/>
       <c r="B66" s="4" t="s">
         <v>44</v>
       </c>
@@ -2632,7 +2649,7 @@
       <c r="I66" s="4"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="105">
+      <c r="A67" s="117">
         <v>11</v>
       </c>
       <c r="B67" s="8" t="s">
@@ -2649,7 +2666,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="106"/>
+      <c r="A68" s="118"/>
       <c r="B68" s="4" t="s">
         <v>101</v>
       </c>
@@ -2668,7 +2685,7 @@
       <c r="I68" s="4"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="106"/>
+      <c r="A69" s="118"/>
       <c r="B69" s="4" t="s">
         <v>102</v>
       </c>
@@ -2687,7 +2704,7 @@
       <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="107"/>
+      <c r="A70" s="119"/>
       <c r="B70" s="4" t="s">
         <v>93</v>
       </c>
@@ -2704,28 +2721,28 @@
       <c r="I70" s="4"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="114" t="s">
+      <c r="A73" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="114"/>
-      <c r="C73" s="114"/>
-      <c r="D73" s="114"/>
-      <c r="E73" s="114"/>
-      <c r="F73" s="114"/>
-      <c r="G73" s="114"/>
-      <c r="H73" s="114"/>
-      <c r="I73" s="114"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="111"/>
+      <c r="D73" s="111"/>
+      <c r="E73" s="111"/>
+      <c r="F73" s="111"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="111"/>
+      <c r="I73" s="111"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="115"/>
-      <c r="B74" s="115"/>
-      <c r="C74" s="115"/>
-      <c r="D74" s="115"/>
-      <c r="E74" s="115"/>
-      <c r="F74" s="115"/>
-      <c r="G74" s="115"/>
-      <c r="H74" s="115"/>
-      <c r="I74" s="115"/>
+      <c r="A74" s="112"/>
+      <c r="B74" s="112"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="112"/>
+      <c r="E74" s="112"/>
+      <c r="F74" s="112"/>
+      <c r="G74" s="112"/>
+      <c r="H74" s="112"/>
+      <c r="I74" s="112"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="39" t="s">
@@ -2900,28 +2917,28 @@
       <c r="I82" s="44"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="112" t="s">
+      <c r="A86" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="112"/>
-      <c r="C86" s="112"/>
-      <c r="D86" s="112"/>
-      <c r="E86" s="112"/>
-      <c r="F86" s="112"/>
-      <c r="G86" s="112"/>
-      <c r="H86" s="112"/>
-      <c r="I86" s="112"/>
+      <c r="B86" s="109"/>
+      <c r="C86" s="109"/>
+      <c r="D86" s="109"/>
+      <c r="E86" s="109"/>
+      <c r="F86" s="109"/>
+      <c r="G86" s="109"/>
+      <c r="H86" s="109"/>
+      <c r="I86" s="109"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="117"/>
-      <c r="B87" s="117"/>
-      <c r="C87" s="117"/>
-      <c r="D87" s="117"/>
-      <c r="E87" s="117"/>
-      <c r="F87" s="117"/>
-      <c r="G87" s="117"/>
-      <c r="H87" s="117"/>
-      <c r="I87" s="117"/>
+      <c r="A87" s="114"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="114"/>
+      <c r="D87" s="114"/>
+      <c r="E87" s="114"/>
+      <c r="F87" s="114"/>
+      <c r="G87" s="114"/>
+      <c r="H87" s="114"/>
+      <c r="I87" s="114"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
@@ -2990,7 +3007,7 @@
       <c r="E90" s="32"/>
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
-      <c r="H90" s="128" t="s">
+      <c r="H90" s="106" t="s">
         <v>15</v>
       </c>
       <c r="I90" s="30"/>
@@ -3065,28 +3082,28 @@
       <c r="A95" s="61"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="112" t="s">
+      <c r="A99" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="112"/>
-      <c r="C99" s="112"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="112"/>
-      <c r="H99" s="112"/>
-      <c r="I99" s="112"/>
+      <c r="B99" s="109"/>
+      <c r="C99" s="109"/>
+      <c r="D99" s="109"/>
+      <c r="E99" s="109"/>
+      <c r="F99" s="109"/>
+      <c r="G99" s="109"/>
+      <c r="H99" s="109"/>
+      <c r="I99" s="109"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="117"/>
-      <c r="B100" s="117"/>
-      <c r="C100" s="117"/>
-      <c r="D100" s="117"/>
-      <c r="E100" s="117"/>
-      <c r="F100" s="117"/>
-      <c r="G100" s="117"/>
-      <c r="H100" s="117"/>
-      <c r="I100" s="117"/>
+      <c r="A100" s="114"/>
+      <c r="B100" s="114"/>
+      <c r="C100" s="114"/>
+      <c r="D100" s="114"/>
+      <c r="E100" s="114"/>
+      <c r="F100" s="114"/>
+      <c r="G100" s="114"/>
+      <c r="H100" s="114"/>
+      <c r="I100" s="114"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
@@ -3244,13 +3261,13 @@
       <c r="I107" s="68"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="120" t="s">
+      <c r="A111" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="B111" s="121"/>
-      <c r="C111" s="121"/>
-      <c r="D111" s="121"/>
-      <c r="E111" s="121"/>
+      <c r="B111" s="127"/>
+      <c r="C111" s="127"/>
+      <c r="D111" s="127"/>
+      <c r="E111" s="127"/>
       <c r="F111" s="71"/>
       <c r="G111" s="71"/>
       <c r="H111" s="71"/>
@@ -3488,13 +3505,13 @@
       <c r="I122" s="85"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="122" t="s">
+      <c r="A123" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="B123" s="123"/>
-      <c r="C123" s="123"/>
-      <c r="D123" s="123"/>
-      <c r="E123" s="123"/>
+      <c r="B123" s="129"/>
+      <c r="C123" s="129"/>
+      <c r="D123" s="129"/>
+      <c r="E123" s="129"/>
       <c r="F123" s="93"/>
       <c r="G123" s="93"/>
       <c r="H123" s="93"/>
@@ -3694,7 +3711,7 @@
       <c r="I132" s="30"/>
     </row>
     <row r="133" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="108">
+      <c r="A133" s="122">
         <v>9</v>
       </c>
       <c r="B133" s="96" t="s">
@@ -3715,7 +3732,7 @@
       </c>
     </row>
     <row r="134" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="109"/>
+      <c r="A134" s="123"/>
       <c r="B134" s="18" t="s">
         <v>132</v>
       </c>
@@ -3735,7 +3752,7 @@
       <c r="L134" s="100"/>
     </row>
     <row r="135" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="110"/>
+      <c r="A135" s="124"/>
       <c r="B135" s="18" t="s">
         <v>133</v>
       </c>
@@ -3757,7 +3774,7 @@
       <c r="L135" s="100"/>
     </row>
     <row r="136" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="111">
+      <c r="A136" s="125">
         <v>10</v>
       </c>
       <c r="B136" s="62" t="s">
@@ -3774,7 +3791,7 @@
       <c r="I136" s="62"/>
     </row>
     <row r="137" spans="1:12" s="104" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A137" s="111"/>
+      <c r="A137" s="125"/>
       <c r="B137" s="101" t="s">
         <v>9</v>
       </c>
@@ -3793,7 +3810,7 @@
       <c r="I137" s="101"/>
     </row>
     <row r="138" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="111"/>
+      <c r="A138" s="125"/>
       <c r="B138" s="18" t="s">
         <v>135</v>
       </c>
@@ -3810,7 +3827,7 @@
       <c r="I138" s="62"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A139" s="111"/>
+      <c r="A139" s="125"/>
       <c r="B139" s="18" t="s">
         <v>117</v>
       </c>
@@ -3827,7 +3844,7 @@
       <c r="I139" s="18"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A140" s="111"/>
+      <c r="A140" s="125"/>
       <c r="B140" s="18" t="s">
         <v>83</v>
       </c>
@@ -3842,7 +3859,7 @@
       <c r="I140" s="18"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" s="111"/>
+      <c r="A141" s="125"/>
       <c r="B141" s="18" t="s">
         <v>43</v>
       </c>
@@ -3857,7 +3874,7 @@
       <c r="I141" s="18"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" s="111"/>
+      <c r="A142" s="125"/>
       <c r="B142" s="18" t="s">
         <v>44</v>
       </c>
@@ -3916,11 +3933,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A67:A70"/>
     <mergeCell ref="A133:A135"/>
     <mergeCell ref="A136:A142"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A123:E123"/>
     <mergeCell ref="A2:I3"/>
     <mergeCell ref="A12:I13"/>
     <mergeCell ref="A24:I25"/>
@@ -3928,11 +3944,12 @@
     <mergeCell ref="A99:I100"/>
     <mergeCell ref="F48:I48"/>
     <mergeCell ref="A33:A42"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A123:E123"/>
     <mergeCell ref="A43:A53"/>
     <mergeCell ref="A73:I74"/>
     <mergeCell ref="E56:I56"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A67:A70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3941,15 +3958,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:D15"/>
+  <dimension ref="A6:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="130.21875" style="129" customWidth="1"/>
+    <col min="2" max="2" width="130.21875" style="107" customWidth="1"/>
     <col min="3" max="3" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="45.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
@@ -3959,110 +3976,116 @@
   <sheetData>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="105">
+        <v>1</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="105">
+        <v>2</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="105">
+        <v>3</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="130">
+        <v>4</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="130"/>
+      <c r="B11" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="130"/>
+      <c r="B12" s="107" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="105">
+        <v>5</v>
+      </c>
+      <c r="B13" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="105">
+        <v>6</v>
+      </c>
+      <c r="B14" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="105">
+        <v>7</v>
+      </c>
+      <c r="B15" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="126">
-        <v>1</v>
-      </c>
-      <c r="B7" s="129" t="s">
+    <row r="16" spans="1:4" s="133" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="131">
+        <v>8</v>
+      </c>
+      <c r="B16" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="C7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="126">
-        <f>A7+1</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="129" t="s">
+      <c r="D16" s="133" t="s">
         <v>146</v>
-      </c>
-      <c r="C8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="126">
-        <f t="shared" ref="A9:A14" si="0">A8+1</f>
-        <v>3</v>
-      </c>
-      <c r="B9" s="129" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="127">
-        <f>A9+1</f>
-        <v>4</v>
-      </c>
-      <c r="B10" s="130" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="127"/>
-      <c r="B11" s="129" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="127"/>
-      <c r="B12" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="126">
-        <f>A10+1</f>
-        <v>5</v>
-      </c>
-      <c r="B13" s="129" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="126">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B14" s="129" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="126">
-        <v>7</v>
-      </c>
-      <c r="B15" s="129" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Database ToCoShopvs.xlsx
+++ b/Database ToCoShopvs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="155">
   <si>
     <t>No.</t>
   </si>
@@ -470,13 +470,16 @@
     <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục nổi bật- theo id sản phẩm( hàng mới cập nhật) || StockTotal&gt;0</t>
   </si>
   <si>
-    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục( truyền params categoryId) || StockTotal&gt;0</t>
-  </si>
-  <si>
     <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] thuộc về một nhà phân phối( dựa theo params supplierId) || StockTotal&gt;0</t>
   </si>
   <si>
     <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] có trường mảng Array- promotionPosition- chứa cụm từ "Giảm sốc trong ngày" hoặc "Gợi ý trong tuần" || StockTotal&gt;0</t>
+  </si>
+  <si>
+    <t>Hien thi mac dinh là gia san pham thap nhat</t>
+  </si>
+  <si>
+    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục( truyền params categoryId) || StockTotal&gt;0 || Hien thi mac dinh gia thanh tien nho nhat.</t>
   </si>
 </sst>
 </file>
@@ -1091,45 +1094,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1150,14 +1119,48 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1485,28 +1488,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -1647,28 +1650,28 @@
       <c r="I9" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="112"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
@@ -1847,28 +1850,28 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
     </row>
     <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="113"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -2031,7 +2034,7 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="117">
+      <c r="A33" s="128">
         <v>7</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -2048,7 +2051,7 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="118"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="4" t="s">
         <v>26</v>
       </c>
@@ -2067,7 +2070,7 @@
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="118"/>
+      <c r="A35" s="129"/>
       <c r="B35" s="4" t="s">
         <v>25</v>
       </c>
@@ -2088,7 +2091,7 @@
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="118"/>
+      <c r="A36" s="129"/>
       <c r="B36" s="4" t="s">
         <v>54</v>
       </c>
@@ -2107,7 +2110,7 @@
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="118"/>
+      <c r="A37" s="129"/>
       <c r="B37" s="4" t="s">
         <v>53</v>
       </c>
@@ -2126,7 +2129,7 @@
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A38" s="118"/>
+      <c r="A38" s="129"/>
       <c r="B38" s="23" t="s">
         <v>27</v>
       </c>
@@ -2143,7 +2146,7 @@
       <c r="I38" s="91"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="118"/>
+      <c r="A39" s="129"/>
       <c r="B39" s="26" t="s">
         <v>51</v>
       </c>
@@ -2162,7 +2165,7 @@
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="118"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="26" t="s">
         <v>109</v>
       </c>
@@ -2181,7 +2184,7 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="118"/>
+      <c r="A41" s="129"/>
       <c r="B41" s="26" t="s">
         <v>110</v>
       </c>
@@ -2200,7 +2203,7 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="119"/>
+      <c r="A42" s="130"/>
       <c r="B42" s="26" t="s">
         <v>52</v>
       </c>
@@ -2219,7 +2222,7 @@
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="117">
+      <c r="A43" s="128">
         <v>8</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -2238,7 +2241,7 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="118"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2257,7 +2260,7 @@
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="118"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="4" t="s">
         <v>54</v>
       </c>
@@ -2276,7 +2279,7 @@
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="118"/>
+      <c r="A46" s="129"/>
       <c r="B46" s="4" t="s">
         <v>53</v>
       </c>
@@ -2295,7 +2298,7 @@
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="118"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="4" t="s">
         <v>26</v>
       </c>
@@ -2314,7 +2317,7 @@
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A48" s="118"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="23" t="s">
         <v>27</v>
       </c>
@@ -2325,15 +2328,15 @@
       <c r="E48" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="115" t="s">
+      <c r="F48" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="G48" s="115"/>
-      <c r="H48" s="115"/>
-      <c r="I48" s="116"/>
+      <c r="G48" s="126"/>
+      <c r="H48" s="126"/>
+      <c r="I48" s="127"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="118"/>
+      <c r="A49" s="129"/>
       <c r="B49" s="26" t="s">
         <v>51</v>
       </c>
@@ -2352,7 +2355,7 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="118"/>
+      <c r="A50" s="129"/>
       <c r="B50" s="26" t="s">
         <v>109</v>
       </c>
@@ -2371,7 +2374,7 @@
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="118"/>
+      <c r="A51" s="129"/>
       <c r="B51" s="26" t="s">
         <v>110</v>
       </c>
@@ -2390,7 +2393,7 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="118"/>
+      <c r="A52" s="129"/>
       <c r="B52" s="26" t="s">
         <v>52</v>
       </c>
@@ -2409,7 +2412,7 @@
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="119"/>
+      <c r="A53" s="130"/>
       <c r="B53" s="4" t="s">
         <v>49</v>
       </c>
@@ -2428,7 +2431,7 @@
       <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="117">
+      <c r="A54" s="128">
         <v>9</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -2447,7 +2450,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="118"/>
+      <c r="A55" s="129"/>
       <c r="B55" s="4" t="s">
         <v>55</v>
       </c>
@@ -2464,7 +2467,7 @@
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" s="11" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A56" s="118"/>
+      <c r="A56" s="129"/>
       <c r="B56" s="23" t="s">
         <v>57</v>
       </c>
@@ -2472,16 +2475,16 @@
         <v>38</v>
       </c>
       <c r="D56" s="25"/>
-      <c r="E56" s="120" t="s">
+      <c r="E56" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="116"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="126"/>
+      <c r="H56" s="126"/>
+      <c r="I56" s="127"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="118"/>
+      <c r="A57" s="129"/>
       <c r="B57" s="26" t="s">
         <v>58</v>
       </c>
@@ -2498,7 +2501,7 @@
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="118"/>
+      <c r="A58" s="129"/>
       <c r="B58" s="26" t="s">
         <v>91</v>
       </c>
@@ -2515,7 +2518,7 @@
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="118"/>
+      <c r="A59" s="129"/>
       <c r="B59" s="26" t="s">
         <v>59</v>
       </c>
@@ -2534,7 +2537,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="119"/>
+      <c r="A60" s="130"/>
       <c r="B60" s="26" t="s">
         <v>60</v>
       </c>
@@ -2553,7 +2556,7 @@
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="121">
+      <c r="A61" s="132">
         <v>10</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -2570,7 +2573,7 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="121"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="4" t="s">
         <v>112</v>
       </c>
@@ -2589,7 +2592,7 @@
       <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="121"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="4" t="s">
         <v>117</v>
       </c>
@@ -2604,7 +2607,7 @@
       <c r="I63" s="4"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="121"/>
+      <c r="A64" s="132"/>
       <c r="B64" s="4" t="s">
         <v>41</v>
       </c>
@@ -2619,7 +2622,7 @@
       <c r="I64" s="4"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="121"/>
+      <c r="A65" s="132"/>
       <c r="B65" s="4" t="s">
         <v>43</v>
       </c>
@@ -2634,7 +2637,7 @@
       <c r="I65" s="4"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="121"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="4" t="s">
         <v>44</v>
       </c>
@@ -2649,7 +2652,7 @@
       <c r="I66" s="4"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="117">
+      <c r="A67" s="128">
         <v>11</v>
       </c>
       <c r="B67" s="8" t="s">
@@ -2666,7 +2669,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="118"/>
+      <c r="A68" s="129"/>
       <c r="B68" s="4" t="s">
         <v>101</v>
       </c>
@@ -2685,7 +2688,7 @@
       <c r="I68" s="4"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="118"/>
+      <c r="A69" s="129"/>
       <c r="B69" s="4" t="s">
         <v>102</v>
       </c>
@@ -2704,7 +2707,7 @@
       <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="119"/>
+      <c r="A70" s="130"/>
       <c r="B70" s="4" t="s">
         <v>93</v>
       </c>
@@ -2721,28 +2724,28 @@
       <c r="I70" s="4"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="111" t="s">
+      <c r="A73" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="111"/>
-      <c r="C73" s="111"/>
-      <c r="D73" s="111"/>
-      <c r="E73" s="111"/>
-      <c r="F73" s="111"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="111"/>
-      <c r="I73" s="111"/>
+      <c r="B73" s="122"/>
+      <c r="C73" s="122"/>
+      <c r="D73" s="122"/>
+      <c r="E73" s="122"/>
+      <c r="F73" s="122"/>
+      <c r="G73" s="122"/>
+      <c r="H73" s="122"/>
+      <c r="I73" s="122"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="112"/>
-      <c r="B74" s="112"/>
-      <c r="C74" s="112"/>
-      <c r="D74" s="112"/>
-      <c r="E74" s="112"/>
-      <c r="F74" s="112"/>
-      <c r="G74" s="112"/>
-      <c r="H74" s="112"/>
-      <c r="I74" s="112"/>
+      <c r="A74" s="123"/>
+      <c r="B74" s="123"/>
+      <c r="C74" s="123"/>
+      <c r="D74" s="123"/>
+      <c r="E74" s="123"/>
+      <c r="F74" s="123"/>
+      <c r="G74" s="123"/>
+      <c r="H74" s="123"/>
+      <c r="I74" s="123"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="39" t="s">
@@ -2917,28 +2920,28 @@
       <c r="I82" s="44"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="109" t="s">
+      <c r="A86" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="109"/>
-      <c r="C86" s="109"/>
-      <c r="D86" s="109"/>
-      <c r="E86" s="109"/>
-      <c r="F86" s="109"/>
-      <c r="G86" s="109"/>
-      <c r="H86" s="109"/>
-      <c r="I86" s="109"/>
+      <c r="B86" s="120"/>
+      <c r="C86" s="120"/>
+      <c r="D86" s="120"/>
+      <c r="E86" s="120"/>
+      <c r="F86" s="120"/>
+      <c r="G86" s="120"/>
+      <c r="H86" s="120"/>
+      <c r="I86" s="120"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="114"/>
-      <c r="B87" s="114"/>
-      <c r="C87" s="114"/>
-      <c r="D87" s="114"/>
-      <c r="E87" s="114"/>
-      <c r="F87" s="114"/>
-      <c r="G87" s="114"/>
-      <c r="H87" s="114"/>
-      <c r="I87" s="114"/>
+      <c r="A87" s="125"/>
+      <c r="B87" s="125"/>
+      <c r="C87" s="125"/>
+      <c r="D87" s="125"/>
+      <c r="E87" s="125"/>
+      <c r="F87" s="125"/>
+      <c r="G87" s="125"/>
+      <c r="H87" s="125"/>
+      <c r="I87" s="125"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
@@ -3082,28 +3085,28 @@
       <c r="A95" s="61"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="109" t="s">
+      <c r="A99" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="109"/>
-      <c r="C99" s="109"/>
-      <c r="D99" s="109"/>
-      <c r="E99" s="109"/>
-      <c r="F99" s="109"/>
-      <c r="G99" s="109"/>
-      <c r="H99" s="109"/>
-      <c r="I99" s="109"/>
+      <c r="B99" s="120"/>
+      <c r="C99" s="120"/>
+      <c r="D99" s="120"/>
+      <c r="E99" s="120"/>
+      <c r="F99" s="120"/>
+      <c r="G99" s="120"/>
+      <c r="H99" s="120"/>
+      <c r="I99" s="120"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="114"/>
-      <c r="B100" s="114"/>
-      <c r="C100" s="114"/>
-      <c r="D100" s="114"/>
-      <c r="E100" s="114"/>
-      <c r="F100" s="114"/>
-      <c r="G100" s="114"/>
-      <c r="H100" s="114"/>
-      <c r="I100" s="114"/>
+      <c r="A100" s="125"/>
+      <c r="B100" s="125"/>
+      <c r="C100" s="125"/>
+      <c r="D100" s="125"/>
+      <c r="E100" s="125"/>
+      <c r="F100" s="125"/>
+      <c r="G100" s="125"/>
+      <c r="H100" s="125"/>
+      <c r="I100" s="125"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
@@ -3261,13 +3264,13 @@
       <c r="I107" s="68"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="126" t="s">
+      <c r="A111" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B111" s="127"/>
-      <c r="C111" s="127"/>
-      <c r="D111" s="127"/>
-      <c r="E111" s="127"/>
+      <c r="B111" s="117"/>
+      <c r="C111" s="117"/>
+      <c r="D111" s="117"/>
+      <c r="E111" s="117"/>
       <c r="F111" s="71"/>
       <c r="G111" s="71"/>
       <c r="H111" s="71"/>
@@ -3505,13 +3508,13 @@
       <c r="I122" s="85"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="128" t="s">
+      <c r="A123" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="B123" s="129"/>
-      <c r="C123" s="129"/>
-      <c r="D123" s="129"/>
-      <c r="E123" s="129"/>
+      <c r="B123" s="119"/>
+      <c r="C123" s="119"/>
+      <c r="D123" s="119"/>
+      <c r="E123" s="119"/>
       <c r="F123" s="93"/>
       <c r="G123" s="93"/>
       <c r="H123" s="93"/>
@@ -3711,7 +3714,7 @@
       <c r="I132" s="30"/>
     </row>
     <row r="133" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="122">
+      <c r="A133" s="112">
         <v>9</v>
       </c>
       <c r="B133" s="96" t="s">
@@ -3732,7 +3735,7 @@
       </c>
     </row>
     <row r="134" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="123"/>
+      <c r="A134" s="113"/>
       <c r="B134" s="18" t="s">
         <v>132</v>
       </c>
@@ -3752,7 +3755,7 @@
       <c r="L134" s="100"/>
     </row>
     <row r="135" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="124"/>
+      <c r="A135" s="114"/>
       <c r="B135" s="18" t="s">
         <v>133</v>
       </c>
@@ -3774,7 +3777,7 @@
       <c r="L135" s="100"/>
     </row>
     <row r="136" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="125">
+      <c r="A136" s="115">
         <v>10</v>
       </c>
       <c r="B136" s="62" t="s">
@@ -3791,7 +3794,7 @@
       <c r="I136" s="62"/>
     </row>
     <row r="137" spans="1:12" s="104" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A137" s="125"/>
+      <c r="A137" s="115"/>
       <c r="B137" s="101" t="s">
         <v>9</v>
       </c>
@@ -3810,7 +3813,7 @@
       <c r="I137" s="101"/>
     </row>
     <row r="138" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="125"/>
+      <c r="A138" s="115"/>
       <c r="B138" s="18" t="s">
         <v>135</v>
       </c>
@@ -3827,7 +3830,7 @@
       <c r="I138" s="62"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A139" s="125"/>
+      <c r="A139" s="115"/>
       <c r="B139" s="18" t="s">
         <v>117</v>
       </c>
@@ -3844,7 +3847,7 @@
       <c r="I139" s="18"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A140" s="125"/>
+      <c r="A140" s="115"/>
       <c r="B140" s="18" t="s">
         <v>83</v>
       </c>
@@ -3859,7 +3862,7 @@
       <c r="I140" s="18"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" s="125"/>
+      <c r="A141" s="115"/>
       <c r="B141" s="18" t="s">
         <v>43</v>
       </c>
@@ -3874,7 +3877,7 @@
       <c r="I141" s="18"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" s="125"/>
+      <c r="A142" s="115"/>
       <c r="B142" s="18" t="s">
         <v>44</v>
       </c>
@@ -3933,6 +3936,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A67:A70"/>
     <mergeCell ref="A133:A135"/>
     <mergeCell ref="A136:A142"/>
     <mergeCell ref="A111:E111"/>
@@ -3949,7 +3953,6 @@
     <mergeCell ref="E56:I56"/>
     <mergeCell ref="A61:A66"/>
     <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A67:A70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3958,10 +3961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:D16"/>
+  <dimension ref="A4:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3974,6 +3977,11 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="108" t="s">
+        <v>153</v>
+      </c>
+    </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>140</v>
@@ -3995,7 +4003,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="107" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
         <v>141</v>
@@ -4006,14 +4014,14 @@
         <v>3</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="130">
+      <c r="A10" s="133">
         <v>4</v>
       </c>
       <c r="B10" s="108" t="s">
@@ -4024,7 +4032,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="130"/>
+      <c r="A11" s="133"/>
       <c r="B11" s="107" t="s">
         <v>147</v>
       </c>
@@ -4033,7 +4041,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="130"/>
+      <c r="A12" s="133"/>
       <c r="B12" s="107" t="s">
         <v>148</v>
       </c>
@@ -4068,7 +4076,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
         <v>141</v>
@@ -4077,14 +4085,14 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="133" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="131">
+    <row r="16" spans="1:4" s="111" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="109">
         <v>8</v>
       </c>
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="133" t="s">
+      <c r="D16" s="111" t="s">
         <v>146</v>
       </c>
     </row>

--- a/Database ToCoShopvs.xlsx
+++ b/Database ToCoShopvs.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Orders" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -485,8 +485,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,42 +502,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -548,40 +516,9 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF232629"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF202124"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -599,8 +536,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,50 +577,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -673,8 +587,31 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -852,277 +789,246 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1131,35 +1037,71 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1469,2474 +1411,2473 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L155"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L123" sqref="L123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23" style="1" customWidth="1"/>
-    <col min="8" max="8" width="48.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="20"/>
+    <col min="2" max="2" width="23.33203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16" style="20" customWidth="1"/>
+    <col min="7" max="7" width="23" style="20" customWidth="1"/>
+    <col min="8" max="8" width="48.44140625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" style="20" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="120" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-    </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="121"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+    </row>
+    <row r="3" spans="1:9" s="21" customFormat="1">
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+    </row>
+    <row r="4" spans="1:9" s="21" customFormat="1">
+      <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+    <row r="5" spans="1:9" s="21" customFormat="1">
+      <c r="A5" s="52">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="I5" s="52"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="23">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="C6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="23">
         <v>50</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="23">
         <f t="shared" ref="A7:A9" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="C7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="23">
         <v>500</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+    <row r="9" spans="1:9">
+      <c r="A9" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="122" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="123"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="101"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="71" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="40">
+    <row r="15" spans="1:9">
+      <c r="A15" s="72">
         <v>1</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="40" t="s">
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40" t="s">
+      <c r="G15" s="72"/>
+      <c r="H15" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="40"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="44">
+      <c r="I15" s="72"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="75">
         <v>2</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="57">
+      <c r="C16" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="77">
         <v>100</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="44" t="s">
+      <c r="E16" s="74"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="49"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="44">
+      <c r="I16" s="72"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="75">
         <v>3</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="57">
+      <c r="C17" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="77">
         <v>50</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44" t="s">
+      <c r="E17" s="78"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="44"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="44">
+      <c r="I17" s="75"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="75">
         <v>4</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="57">
+      <c r="C18" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="77">
         <v>50</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44" t="s">
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="44"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="44">
+      <c r="I18" s="75"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="75">
         <v>5</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="57">
+      <c r="C19" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="77">
         <v>500</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="55">
+      <c r="E19" s="78"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="23">
         <f t="shared" ref="A20:A21" si="1">A19+1</f>
         <v>6</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="53" t="s">
+      <c r="C20" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="55">
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="23">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="124" t="s">
+    <row r="24" spans="1:9" s="21" customFormat="1">
+      <c r="A24" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-    </row>
-    <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="124"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-    </row>
-    <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+    </row>
+    <row r="25" spans="1:9" s="21" customFormat="1">
+      <c r="A25" s="102"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+    </row>
+    <row r="26" spans="1:9" s="21" customFormat="1">
+      <c r="A26" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+    <row r="27" spans="1:9" s="21" customFormat="1">
+      <c r="A27" s="30">
         <v>1</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="4" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
+      <c r="G27" s="30"/>
+      <c r="H27" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" s="21" customFormat="1">
+      <c r="A28" s="30">
         <f>A27+1</f>
         <v>2</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="C28" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="32">
         <v>50</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
+      <c r="E28" s="33"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="30">
         <f t="shared" ref="A29:A32" si="2">A28+1</f>
         <v>3</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4" t="s">
+      <c r="D29" s="32"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="30">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="32"/>
+      <c r="E30" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="30">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7" t="s">
+      <c r="D31" s="32"/>
+      <c r="E31" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="30">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
+      <c r="C32" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="128">
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="1:9" s="21" customFormat="1">
+      <c r="A33" s="108">
         <v>7</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="129"/>
-      <c r="B34" s="4" t="s">
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="109"/>
+      <c r="B34" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="C34" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="32">
         <v>50</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="8" t="s">
+      <c r="E34" s="33"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="129"/>
-      <c r="B35" s="4" t="s">
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="109"/>
+      <c r="B35" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="C35" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="32">
         <v>50</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="8" t="s">
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="129"/>
-      <c r="B36" s="4" t="s">
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="109"/>
+      <c r="B36" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="6">
+      <c r="C36" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="32">
         <v>50</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
+      <c r="E36" s="33"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="129"/>
-      <c r="B37" s="4" t="s">
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="109"/>
+      <c r="B37" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="6">
+      <c r="C37" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="32">
         <v>50</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
+      <c r="E37" s="33"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" s="11" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A38" s="129"/>
-      <c r="B38" s="23" t="s">
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="1:9" s="21" customFormat="1" ht="16.2">
+      <c r="A38" s="109"/>
+      <c r="B38" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="89" t="s">
+      <c r="D38" s="39"/>
+      <c r="E38" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="91"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="129"/>
-      <c r="B39" s="26" t="s">
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="42"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="109"/>
+      <c r="B39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="28">
+      <c r="C39" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="44">
         <v>50</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="129"/>
-      <c r="B40" s="26" t="s">
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="109"/>
+      <c r="B40" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="28">
+      <c r="C40" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="44">
         <v>50</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="129"/>
-      <c r="B41" s="26" t="s">
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="109"/>
+      <c r="B41" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="28">
+      <c r="C41" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="44">
         <v>50</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="130"/>
-      <c r="B42" s="26" t="s">
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="110"/>
+      <c r="B42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="28">
+      <c r="C42" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="44">
         <v>500</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4" t="s">
+      <c r="E42" s="33"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="128">
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" spans="1:9" s="21" customFormat="1">
+      <c r="A43" s="108">
         <v>8</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="7" t="s">
+      <c r="D43" s="35"/>
+      <c r="E43" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="129"/>
-      <c r="B44" s="4" t="s">
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="109"/>
+      <c r="B44" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8" t="s">
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="8" t="s">
+      <c r="G44" s="30"/>
+      <c r="H44" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="129"/>
-      <c r="B45" s="4" t="s">
+      <c r="I44" s="30"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="109"/>
+      <c r="B45" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="6">
+      <c r="C45" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="32">
         <v>50</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4" t="s">
+      <c r="E45" s="33"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="129"/>
-      <c r="B46" s="4" t="s">
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="109"/>
+      <c r="B46" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="6">
+      <c r="C46" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="32">
         <v>50</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4" t="s">
+      <c r="E46" s="33"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="129"/>
-      <c r="B47" s="4" t="s">
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="109"/>
+      <c r="B47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="6">
+      <c r="C47" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="32">
         <v>50</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="8" t="s">
+      <c r="E47" s="33"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A48" s="129"/>
-      <c r="B48" s="23" t="s">
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.2">
+      <c r="A48" s="109"/>
+      <c r="B48" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="89" t="s">
+      <c r="D48" s="39"/>
+      <c r="E48" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="126" t="s">
+      <c r="F48" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="G48" s="126"/>
-      <c r="H48" s="126"/>
-      <c r="I48" s="127"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="129"/>
-      <c r="B49" s="26" t="s">
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="107"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="109"/>
+      <c r="B49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="28">
+      <c r="C49" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="44">
         <v>50</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="129"/>
-      <c r="B50" s="26" t="s">
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="109"/>
+      <c r="B50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="28">
+      <c r="C50" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="44">
         <v>50</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="129"/>
-      <c r="B51" s="26" t="s">
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="109"/>
+      <c r="B51" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="28">
+      <c r="C51" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="44">
         <v>50</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="129"/>
-      <c r="B52" s="26" t="s">
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="109"/>
+      <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="28">
+      <c r="C52" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="44">
         <v>500</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4" t="s">
+      <c r="E52" s="33"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="130"/>
-      <c r="B53" s="4" t="s">
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="110"/>
+      <c r="B53" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="6">
+      <c r="C53" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="32">
         <v>200</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="128">
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="1:9" s="21" customFormat="1">
+      <c r="A54" s="108">
         <v>9</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="7" t="s">
+      <c r="D54" s="35"/>
+      <c r="E54" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="129"/>
-      <c r="B55" s="4" t="s">
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="109"/>
+      <c r="B55" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4" t="s">
+      <c r="C55" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="32"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" s="11" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A56" s="129"/>
-      <c r="B56" s="23" t="s">
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="1:9" s="21" customFormat="1" ht="16.2">
+      <c r="A56" s="109"/>
+      <c r="B56" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="131" t="s">
+      <c r="D56" s="39"/>
+      <c r="E56" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="127"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="129"/>
-      <c r="B57" s="26" t="s">
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="107"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="109"/>
+      <c r="B57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="8" t="s">
+      <c r="C57" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="44"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="129"/>
-      <c r="B58" s="26" t="s">
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="109"/>
+      <c r="B58" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="28">
+      <c r="C58" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="44">
         <v>50</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="129"/>
-      <c r="B59" s="26" t="s">
+      <c r="E58" s="33"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="109"/>
+      <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="8" t="s">
+      <c r="D59" s="44"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I59" s="30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="130"/>
-      <c r="B60" s="26" t="s">
+    <row r="60" spans="1:9">
+      <c r="A60" s="110"/>
+      <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="28">
+      <c r="C60" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="44">
         <v>3</v>
       </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="86" t="s">
+      <c r="E60" s="33"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="132">
+      <c r="I60" s="30"/>
+    </row>
+    <row r="61" spans="1:9" s="21" customFormat="1">
+      <c r="A61" s="112">
         <v>10</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="132"/>
-      <c r="B62" s="4" t="s">
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="112"/>
+      <c r="B62" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8" t="s">
+      <c r="D62" s="32"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="8" t="s">
+      <c r="G62" s="30"/>
+      <c r="H62" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="132"/>
-      <c r="B63" s="4" t="s">
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="112"/>
+      <c r="B63" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="132"/>
-      <c r="B64" s="4" t="s">
+      <c r="C63" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="32"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="30"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="112"/>
+      <c r="B64" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="132"/>
-      <c r="B65" s="4" t="s">
+      <c r="D64" s="32"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="112"/>
+      <c r="B65" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="132"/>
-      <c r="B66" s="4" t="s">
+      <c r="D65" s="30"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="112"/>
+      <c r="B66" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="128">
+      <c r="D66" s="30"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="108">
         <v>11</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="129"/>
-      <c r="B68" s="4" t="s">
+      <c r="D67" s="35"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="109"/>
+      <c r="B68" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="8" t="s">
+      <c r="D68" s="32"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="8" t="s">
+      <c r="G68" s="30"/>
+      <c r="H68" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="129"/>
-      <c r="B69" s="4" t="s">
+      <c r="I68" s="30"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="109"/>
+      <c r="B69" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="6">
+      <c r="C69" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="32">
         <v>50</v>
       </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="8" t="s">
+      <c r="E69" s="33"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="130"/>
-      <c r="B70" s="4" t="s">
+      <c r="I69" s="30"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="110"/>
+      <c r="B70" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="6">
+      <c r="C70" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="32">
         <v>500</v>
       </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="122" t="s">
+      <c r="E70" s="33"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="122"/>
-      <c r="C73" s="122"/>
-      <c r="D73" s="122"/>
-      <c r="E73" s="122"/>
-      <c r="F73" s="122"/>
-      <c r="G73" s="122"/>
-      <c r="H73" s="122"/>
-      <c r="I73" s="122"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="123"/>
-      <c r="B74" s="123"/>
-      <c r="C74" s="123"/>
-      <c r="D74" s="123"/>
-      <c r="E74" s="123"/>
-      <c r="F74" s="123"/>
-      <c r="G74" s="123"/>
-      <c r="H74" s="123"/>
-      <c r="I74" s="123"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="39" t="s">
+      <c r="B73" s="100"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="100"/>
+      <c r="E73" s="100"/>
+      <c r="F73" s="100"/>
+      <c r="G73" s="100"/>
+      <c r="H73" s="100"/>
+      <c r="I73" s="100"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="101"/>
+      <c r="B74" s="101"/>
+      <c r="C74" s="101"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="101"/>
+      <c r="F74" s="101"/>
+      <c r="G74" s="101"/>
+      <c r="H74" s="101"/>
+      <c r="I74" s="101"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="39" t="s">
+      <c r="B75" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="39" t="s">
+      <c r="D75" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F75" s="39" t="s">
+      <c r="F75" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G75" s="39" t="s">
+      <c r="G75" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H75" s="39" t="s">
+      <c r="H75" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="I75" s="39" t="s">
+      <c r="I75" s="71" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="40">
+    <row r="76" spans="1:9">
+      <c r="A76" s="72">
         <v>1</v>
       </c>
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="41" t="s">
+      <c r="C76" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="42"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="40" t="s">
+      <c r="D76" s="73"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40" t="s">
+      <c r="G76" s="72"/>
+      <c r="H76" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="I76" s="40"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="44">
+      <c r="I76" s="72"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="75">
         <f>A76+1</f>
         <v>2</v>
       </c>
-      <c r="B77" s="45" t="s">
+      <c r="B77" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="47">
+      <c r="C77" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="32">
         <v>50</v>
       </c>
-      <c r="E77" s="48"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="44" t="s">
+      <c r="E77" s="74"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="49"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="44">
+      <c r="I77" s="72"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="75">
         <f>A77+1</f>
         <v>3</v>
       </c>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="59" t="s">
+      <c r="C78" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="47"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="49"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="87">
+      <c r="D78" s="32"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="72"/>
+      <c r="H78" s="75"/>
+      <c r="I78" s="72"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="79">
         <f t="shared" ref="A79:A82" si="3">A78+1</f>
         <v>4</v>
       </c>
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C79" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="47">
+      <c r="C79" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="32">
         <v>50</v>
       </c>
-      <c r="E79" s="48"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="49"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="44">
+      <c r="E79" s="74"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="72"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="75">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B80" s="88" t="s">
+      <c r="B80" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="47">
+      <c r="C80" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="32">
         <v>50</v>
       </c>
-      <c r="E80" s="50"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="44">
+      <c r="E80" s="78"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="75"/>
+      <c r="I80" s="75"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="75">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B81" s="51" t="s">
+      <c r="B81" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C81" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="53">
+      <c r="C81" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="28">
         <v>50</v>
       </c>
-      <c r="E81" s="54"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="55"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="44">
+      <c r="E81" s="24"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="75">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B82" s="44" t="s">
+      <c r="B82" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C82" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="57">
+      <c r="C82" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="77">
         <v>200</v>
       </c>
-      <c r="E82" s="50" t="s">
+      <c r="E82" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="44"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="44"/>
-      <c r="I82" s="44"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="120" t="s">
+      <c r="F82" s="75"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="75"/>
+      <c r="I82" s="75"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="120"/>
-      <c r="C86" s="120"/>
-      <c r="D86" s="120"/>
-      <c r="E86" s="120"/>
-      <c r="F86" s="120"/>
-      <c r="G86" s="120"/>
-      <c r="H86" s="120"/>
-      <c r="I86" s="120"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="125"/>
-      <c r="B87" s="125"/>
-      <c r="C87" s="125"/>
-      <c r="D87" s="125"/>
-      <c r="E87" s="125"/>
-      <c r="F87" s="125"/>
-      <c r="G87" s="125"/>
-      <c r="H87" s="125"/>
-      <c r="I87" s="125"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="33" t="s">
+      <c r="B86" s="103"/>
+      <c r="C86" s="103"/>
+      <c r="D86" s="103"/>
+      <c r="E86" s="103"/>
+      <c r="F86" s="103"/>
+      <c r="G86" s="103"/>
+      <c r="H86" s="103"/>
+      <c r="I86" s="103"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="104"/>
+      <c r="B87" s="104"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="104"/>
+      <c r="E87" s="104"/>
+      <c r="F87" s="104"/>
+      <c r="G87" s="104"/>
+      <c r="H87" s="104"/>
+      <c r="I87" s="104"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="33" t="s">
+      <c r="B88" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D88" s="33" t="s">
+      <c r="D88" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E88" s="33" t="s">
+      <c r="E88" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F88" s="33" t="s">
+      <c r="F88" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H88" s="33" t="s">
+      <c r="H88" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I88" s="33" t="s">
+      <c r="I88" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="34">
+    <row r="89" spans="1:9">
+      <c r="A89" s="9">
         <v>1</v>
       </c>
-      <c r="B89" s="34" t="s">
+      <c r="B89" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="36"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="34" t="s">
+      <c r="D89" s="81"/>
+      <c r="E89" s="82"/>
+      <c r="F89" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34" t="s">
+      <c r="G89" s="9"/>
+      <c r="H89" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I89" s="38"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="30">
+      <c r="I89" s="9"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="10">
         <f>A89+1</f>
         <v>2</v>
       </c>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="31">
+      <c r="C90" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="12">
         <v>50</v>
       </c>
-      <c r="E90" s="32"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="106" t="s">
+      <c r="E90" s="13"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I90" s="30"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="30">
+      <c r="I90" s="10"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="10">
         <f t="shared" ref="A91:A93" si="4">A90+1</f>
         <v>3</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C91" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="31">
+      <c r="C91" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="12">
         <v>50</v>
       </c>
-      <c r="E91" s="32"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="30">
+      <c r="E91" s="13"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="10">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C92" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="22">
+      <c r="C92" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="17">
         <v>50</v>
       </c>
-      <c r="E92" s="2"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18" t="s">
+      <c r="E92" s="18"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H92" s="18" t="s">
+      <c r="H92" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I92" s="18"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="30">
+      <c r="I92" s="19"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="10">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D93" s="31"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="18" t="s">
+      <c r="D93" s="12"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="H93" s="18" t="s">
+      <c r="H93" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="I93" s="30"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="61"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="120" t="s">
+      <c r="I93" s="10"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="120"/>
-      <c r="C99" s="120"/>
-      <c r="D99" s="120"/>
-      <c r="E99" s="120"/>
-      <c r="F99" s="120"/>
-      <c r="G99" s="120"/>
-      <c r="H99" s="120"/>
-      <c r="I99" s="120"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="125"/>
-      <c r="B100" s="125"/>
-      <c r="C100" s="125"/>
-      <c r="D100" s="125"/>
-      <c r="E100" s="125"/>
-      <c r="F100" s="125"/>
-      <c r="G100" s="125"/>
-      <c r="H100" s="125"/>
-      <c r="I100" s="125"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="33" t="s">
+      <c r="B99" s="98"/>
+      <c r="C99" s="98"/>
+      <c r="D99" s="98"/>
+      <c r="E99" s="98"/>
+      <c r="F99" s="98"/>
+      <c r="G99" s="98"/>
+      <c r="H99" s="98"/>
+      <c r="I99" s="98"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="105"/>
+      <c r="B100" s="105"/>
+      <c r="C100" s="105"/>
+      <c r="D100" s="105"/>
+      <c r="E100" s="105"/>
+      <c r="F100" s="105"/>
+      <c r="G100" s="105"/>
+      <c r="H100" s="105"/>
+      <c r="I100" s="105"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="33" t="s">
+      <c r="B101" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="33" t="s">
+      <c r="C101" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D101" s="33" t="s">
+      <c r="D101" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="33" t="s">
+      <c r="E101" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="33" t="s">
+      <c r="F101" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G101" s="33" t="s">
+      <c r="G101" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H101" s="33" t="s">
+      <c r="H101" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I101" s="33" t="s">
+      <c r="I101" s="46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="34">
+    <row r="102" spans="1:9">
+      <c r="A102" s="47">
         <v>1</v>
       </c>
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D102" s="36"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="34" t="s">
+      <c r="D102" s="60"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34" t="s">
+      <c r="G102" s="47"/>
+      <c r="H102" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I102" s="38"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="30">
+      <c r="I102" s="47"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="48">
         <f>A102+1</f>
         <v>2</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C103" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="31">
+      <c r="C103" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="50">
         <v>50</v>
       </c>
-      <c r="E103" s="32"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="62"/>
-      <c r="I103" s="30"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="30">
+      <c r="E103" s="51"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="52"/>
+      <c r="I103" s="48"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="48">
         <f t="shared" ref="A104:A106" si="5">A103+1</f>
         <v>3</v>
       </c>
-      <c r="B104" s="30" t="s">
+      <c r="B104" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C104" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" s="31">
+      <c r="C104" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="50">
         <v>500</v>
       </c>
-      <c r="E104" s="32" t="s">
+      <c r="E104" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
-      <c r="I104" s="30"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="30">
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="48"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="48">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B105" s="21" t="s">
+      <c r="B105" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C105" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" s="22" t="s">
+      <c r="C105" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="2"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="63">
+      <c r="E105" s="24"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="23"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="53">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B106" s="63" t="s">
+      <c r="B106" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C106" s="64" t="s">
+      <c r="C106" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D106" s="65"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="63"/>
-      <c r="G106" s="67">
+      <c r="D106" s="55"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="57">
         <v>0</v>
       </c>
-      <c r="H106" s="67" t="s">
+      <c r="H106" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="I106" s="63"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="68">
+      <c r="I106" s="53"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="58">
         <v>6</v>
       </c>
-      <c r="B107" s="68" t="s">
+      <c r="B107" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C107" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="68"/>
-      <c r="E107" s="68"/>
-      <c r="F107" s="68"/>
-      <c r="G107" s="69" t="s">
+      <c r="C107" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="58"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H107" s="69" t="s">
+      <c r="H107" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I107" s="68"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="116" t="s">
+      <c r="I107" s="58"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="B111" s="117"/>
-      <c r="C111" s="117"/>
-      <c r="D111" s="117"/>
-      <c r="E111" s="117"/>
-      <c r="F111" s="71"/>
-      <c r="G111" s="71"/>
-      <c r="H111" s="71"/>
-      <c r="I111" s="71"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="72" t="s">
+      <c r="B111" s="118"/>
+      <c r="C111" s="118"/>
+      <c r="D111" s="118"/>
+      <c r="E111" s="118"/>
+      <c r="F111" s="83"/>
+      <c r="G111" s="83"/>
+      <c r="H111" s="83"/>
+      <c r="I111" s="83"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="72" t="s">
+      <c r="B112" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="72" t="s">
+      <c r="C112" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D112" s="72" t="s">
+      <c r="D112" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="E112" s="72" t="s">
+      <c r="E112" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="F112" s="72" t="s">
+      <c r="F112" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="G112" s="72" t="s">
+      <c r="G112" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="H112" s="72" t="s">
+      <c r="H112" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="I112" s="72" t="s">
+      <c r="I112" s="84" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="73">
+    <row r="113" spans="1:9">
+      <c r="A113" s="85">
         <v>1</v>
       </c>
-      <c r="B113" s="73" t="s">
+      <c r="B113" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C113" s="74" t="s">
+      <c r="C113" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D113" s="75">
+      <c r="D113" s="86">
         <v>50</v>
       </c>
-      <c r="E113" s="76"/>
-      <c r="F113" s="73" t="s">
+      <c r="E113" s="87"/>
+      <c r="F113" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="G113" s="73"/>
-      <c r="H113" s="73"/>
-      <c r="I113" s="73"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="77">
+      <c r="G113" s="85"/>
+      <c r="H113" s="85"/>
+      <c r="I113" s="85"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="88">
         <v>2</v>
       </c>
-      <c r="B114" s="77" t="s">
+      <c r="B114" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="C114" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" s="79">
+      <c r="C114" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="90">
         <v>50</v>
       </c>
-      <c r="E114" s="80"/>
-      <c r="F114" s="77"/>
-      <c r="G114" s="77" t="s">
+      <c r="E114" s="91"/>
+      <c r="F114" s="88"/>
+      <c r="G114" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="H114" s="77"/>
-      <c r="I114" s="77"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="77">
+      <c r="H114" s="88"/>
+      <c r="I114" s="88"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="88">
         <v>3</v>
       </c>
-      <c r="B115" s="77" t="s">
+      <c r="B115" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C115" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" s="79">
+      <c r="C115" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="90">
         <v>50</v>
       </c>
-      <c r="E115" s="80"/>
-      <c r="F115" s="77"/>
-      <c r="G115" s="77" t="s">
+      <c r="E115" s="91"/>
+      <c r="F115" s="88"/>
+      <c r="G115" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="H115" s="77"/>
-      <c r="I115" s="77"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="77">
+      <c r="H115" s="88"/>
+      <c r="I115" s="88"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="88">
         <v>4</v>
       </c>
-      <c r="B116" s="77" t="s">
+      <c r="B116" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C116" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" s="79">
+      <c r="C116" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="90">
         <v>50</v>
       </c>
-      <c r="E116" s="80" t="s">
+      <c r="E116" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="F116" s="77"/>
-      <c r="G116" s="77"/>
-      <c r="H116" s="77"/>
-      <c r="I116" s="77"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="77">
+      <c r="F116" s="88"/>
+      <c r="G116" s="88"/>
+      <c r="H116" s="88"/>
+      <c r="I116" s="88"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="88">
         <v>5</v>
       </c>
-      <c r="B117" s="77" t="s">
+      <c r="B117" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C117" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="79">
+      <c r="C117" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="90">
         <v>500</v>
       </c>
-      <c r="E117" s="80"/>
-      <c r="F117" s="77"/>
-      <c r="G117" s="77" t="s">
+      <c r="E117" s="91"/>
+      <c r="F117" s="88"/>
+      <c r="G117" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="H117" s="62" t="s">
+      <c r="H117" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="I117" s="77"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="77">
+      <c r="I117" s="88"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="88">
         <v>6</v>
       </c>
-      <c r="B118" s="77" t="s">
+      <c r="B118" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="C118" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" s="79">
+      <c r="C118" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="90">
         <v>50</v>
       </c>
-      <c r="E118" s="80"/>
-      <c r="F118" s="77"/>
-      <c r="G118" s="77"/>
-      <c r="H118" s="77" t="s">
+      <c r="E118" s="91"/>
+      <c r="F118" s="88"/>
+      <c r="G118" s="88"/>
+      <c r="H118" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="I118" s="77"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="81">
+      <c r="I118" s="88"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="92">
         <v>7</v>
       </c>
-      <c r="B119" s="81" t="s">
+      <c r="B119" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="C119" s="82" t="s">
+      <c r="C119" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="D119" s="83"/>
-      <c r="E119" s="84" t="s">
+      <c r="D119" s="94"/>
+      <c r="E119" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="F119" s="81"/>
-      <c r="G119" s="81"/>
-      <c r="H119" s="81"/>
-      <c r="I119" s="81"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="81">
+      <c r="F119" s="92"/>
+      <c r="G119" s="92"/>
+      <c r="H119" s="92"/>
+      <c r="I119" s="92"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="92">
         <v>8</v>
       </c>
-      <c r="B120" s="81" t="s">
+      <c r="B120" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="C120" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" s="22" t="s">
+      <c r="C120" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E120" s="84" t="s">
+      <c r="E120" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="F120" s="81"/>
-      <c r="G120" s="81"/>
-      <c r="H120" s="81"/>
-      <c r="I120" s="81"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="81">
+      <c r="F120" s="92"/>
+      <c r="G120" s="92"/>
+      <c r="H120" s="92"/>
+      <c r="I120" s="92"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="122">
         <v>9</v>
       </c>
-      <c r="B121" s="81" t="s">
+      <c r="B121" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="83"/>
-      <c r="E121" s="84" t="s">
+      <c r="C121" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="124"/>
+      <c r="E121" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="81"/>
-      <c r="G121" s="81" t="s">
+      <c r="F121" s="122"/>
+      <c r="G121" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="H121" s="81" t="s">
+      <c r="H121" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="I121" s="81"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="85"/>
-      <c r="B122" s="85"/>
-      <c r="C122" s="85"/>
-      <c r="D122" s="85"/>
-      <c r="E122" s="85"/>
-      <c r="F122" s="85"/>
-      <c r="G122" s="85"/>
-      <c r="H122" s="85"/>
-      <c r="I122" s="85"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="118" t="s">
+      <c r="I121" s="122"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="96"/>
+      <c r="B122" s="96"/>
+      <c r="C122" s="96"/>
+      <c r="D122" s="96"/>
+      <c r="E122" s="96"/>
+      <c r="F122" s="96"/>
+      <c r="G122" s="96"/>
+      <c r="H122" s="96"/>
+      <c r="I122" s="96"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="B123" s="119"/>
-      <c r="C123" s="119"/>
-      <c r="D123" s="119"/>
-      <c r="E123" s="119"/>
-      <c r="F123" s="93"/>
-      <c r="G123" s="93"/>
-      <c r="H123" s="93"/>
-      <c r="I123" s="93"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="29" t="s">
+      <c r="B123" s="120"/>
+      <c r="C123" s="120"/>
+      <c r="D123" s="120"/>
+      <c r="E123" s="120"/>
+      <c r="F123" s="97"/>
+      <c r="G123" s="97"/>
+      <c r="H123" s="97"/>
+      <c r="I123" s="97"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="29" t="s">
+      <c r="B124" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="29" t="s">
+      <c r="C124" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="29" t="s">
+      <c r="D124" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E124" s="29" t="s">
+      <c r="E124" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F124" s="29" t="s">
+      <c r="F124" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G124" s="29" t="s">
+      <c r="G124" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H124" s="29" t="s">
+      <c r="H124" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I124" s="29" t="s">
+      <c r="I124" s="49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="38">
+    <row r="125" spans="1:9" s="21" customFormat="1">
+      <c r="A125" s="47">
         <v>1</v>
       </c>
-      <c r="B125" s="38" t="s">
+      <c r="B125" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C125" s="33" t="s">
+      <c r="C125" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D125" s="94"/>
-      <c r="E125" s="95"/>
-      <c r="F125" s="38" t="s">
+      <c r="D125" s="60"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G125" s="38"/>
-      <c r="H125" s="38" t="s">
+      <c r="G125" s="47"/>
+      <c r="H125" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I125" s="38"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="30">
+      <c r="I125" s="47"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="48">
         <v>2</v>
       </c>
-      <c r="B126" s="30" t="s">
+      <c r="B126" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C126" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" s="31">
+      <c r="C126" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="50">
         <v>10</v>
       </c>
-      <c r="E126" s="32"/>
-      <c r="F126" s="30"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="30" t="s">
+      <c r="E126" s="51"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="I126" s="30"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="30">
+      <c r="I126" s="48"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="48">
         <v>3</v>
       </c>
-      <c r="B127" s="30" t="s">
+      <c r="B127" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C127" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" s="31">
+      <c r="C127" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="50">
         <v>50</v>
       </c>
-      <c r="E127" s="32"/>
-      <c r="F127" s="30"/>
-      <c r="G127" s="30"/>
-      <c r="H127" s="30"/>
-      <c r="I127" s="30"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="30">
+      <c r="E127" s="51"/>
+      <c r="F127" s="48"/>
+      <c r="G127" s="48"/>
+      <c r="H127" s="48"/>
+      <c r="I127" s="48"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="48">
         <v>4</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C128" s="29" t="s">
+      <c r="C128" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D128" s="31"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="30" t="s">
+      <c r="D128" s="50"/>
+      <c r="E128" s="51"/>
+      <c r="F128" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="G128" s="30"/>
-      <c r="H128" s="30" t="s">
+      <c r="G128" s="48"/>
+      <c r="H128" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="I128" s="30"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="30">
+      <c r="I128" s="48"/>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="48">
         <v>5</v>
       </c>
-      <c r="B129" s="30" t="s">
+      <c r="B129" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C129" s="29" t="s">
+      <c r="C129" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D129" s="31"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="30" t="s">
+      <c r="D129" s="50"/>
+      <c r="E129" s="51"/>
+      <c r="F129" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="G129" s="30"/>
-      <c r="H129" s="30" t="s">
+      <c r="G129" s="48"/>
+      <c r="H129" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="I129" s="30"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" s="30">
+      <c r="I129" s="48"/>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="48">
         <v>6</v>
       </c>
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C130" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" s="31" t="s">
+      <c r="C130" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="E130" s="32"/>
-      <c r="F130" s="30"/>
-      <c r="G130" s="30"/>
-      <c r="H130" s="30"/>
-      <c r="I130" s="30"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" s="30">
+      <c r="E130" s="51"/>
+      <c r="F130" s="48"/>
+      <c r="G130" s="48"/>
+      <c r="H130" s="48"/>
+      <c r="I130" s="48"/>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="48">
         <v>7</v>
       </c>
-      <c r="B131" s="30" t="s">
+      <c r="B131" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C131" s="29" t="s">
+      <c r="C131" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D131" s="31"/>
-      <c r="E131" s="97" t="s">
+      <c r="D131" s="50"/>
+      <c r="E131" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F131" s="30"/>
-      <c r="G131" s="30"/>
-      <c r="H131" s="30"/>
-      <c r="I131" s="30" t="s">
+      <c r="F131" s="48"/>
+      <c r="G131" s="48"/>
+      <c r="H131" s="48"/>
+      <c r="I131" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="30">
+    <row r="132" spans="1:12">
+      <c r="A132" s="48">
         <v>8</v>
       </c>
-      <c r="B132" s="30" t="s">
+      <c r="B132" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C132" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="22" t="s">
+      <c r="C132" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E132" s="97" t="s">
+      <c r="E132" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F132" s="30"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="30"/>
-      <c r="I132" s="30"/>
-    </row>
-    <row r="133" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="112">
+      <c r="F132" s="48"/>
+      <c r="G132" s="48"/>
+      <c r="H132" s="48"/>
+      <c r="I132" s="48"/>
+    </row>
+    <row r="133" spans="1:12" s="21" customFormat="1">
+      <c r="A133" s="113">
         <v>9</v>
       </c>
-      <c r="B133" s="96" t="s">
+      <c r="B133" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C133" s="97" t="s">
+      <c r="C133" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="D133" s="22"/>
-      <c r="E133" s="97" t="s">
+      <c r="D133" s="28"/>
+      <c r="E133" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="96"/>
-      <c r="G133" s="96"/>
-      <c r="H133" s="96"/>
-      <c r="I133" s="96" t="s">
+      <c r="F133" s="63"/>
+      <c r="G133" s="63"/>
+      <c r="H133" s="63"/>
+      <c r="I133" s="63" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="113"/>
-      <c r="B134" s="18" t="s">
+    <row r="134" spans="1:12" s="58" customFormat="1">
+      <c r="A134" s="114"/>
+      <c r="B134" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C134" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" s="22" t="s">
+      <c r="C134" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E134" s="19"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
-      <c r="J134" s="100"/>
-      <c r="K134" s="100"/>
-      <c r="L134" s="100"/>
-    </row>
-    <row r="135" spans="1:12" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="114"/>
-      <c r="B135" s="18" t="s">
+      <c r="E134" s="25"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="23"/>
+      <c r="H134" s="23"/>
+      <c r="I134" s="23"/>
+      <c r="J134" s="64"/>
+      <c r="K134" s="64"/>
+      <c r="L134" s="64"/>
+    </row>
+    <row r="135" spans="1:12" s="58" customFormat="1">
+      <c r="A135" s="115"/>
+      <c r="B135" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C135" s="19" t="s">
+      <c r="C135" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D135" s="20"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18">
+      <c r="D135" s="26"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23">
         <v>0</v>
       </c>
-      <c r="H135" s="18" t="s">
+      <c r="H135" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="I135" s="18"/>
-      <c r="J135" s="100"/>
-      <c r="K135" s="100"/>
-      <c r="L135" s="100"/>
-    </row>
-    <row r="136" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="115">
+      <c r="I135" s="23"/>
+      <c r="J135" s="64"/>
+      <c r="K135" s="64"/>
+      <c r="L135" s="64"/>
+    </row>
+    <row r="136" spans="1:12" s="21" customFormat="1">
+      <c r="A136" s="116">
         <v>10</v>
       </c>
-      <c r="B136" s="62" t="s">
+      <c r="B136" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C136" s="99" t="s">
+      <c r="C136" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="D136" s="62"/>
-      <c r="E136" s="62"/>
-      <c r="F136" s="62"/>
-      <c r="G136" s="62"/>
-      <c r="H136" s="62"/>
-      <c r="I136" s="62"/>
-    </row>
-    <row r="137" spans="1:12" s="104" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A137" s="115"/>
-      <c r="B137" s="101" t="s">
+      <c r="D136" s="52"/>
+      <c r="E136" s="52"/>
+      <c r="F136" s="52"/>
+      <c r="G136" s="52"/>
+      <c r="H136" s="52"/>
+      <c r="I136" s="52"/>
+    </row>
+    <row r="137" spans="1:12" s="69" customFormat="1" ht="16.2">
+      <c r="A137" s="116"/>
+      <c r="B137" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C137" s="102" t="s">
+      <c r="C137" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D137" s="101"/>
-      <c r="E137" s="101"/>
-      <c r="F137" s="103" t="s">
+      <c r="D137" s="66"/>
+      <c r="E137" s="66"/>
+      <c r="F137" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G137" s="101"/>
-      <c r="H137" s="103" t="s">
+      <c r="G137" s="66"/>
+      <c r="H137" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="I137" s="101"/>
-    </row>
-    <row r="138" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="115"/>
-      <c r="B138" s="18" t="s">
+      <c r="I137" s="66"/>
+    </row>
+    <row r="138" spans="1:12" s="21" customFormat="1">
+      <c r="A138" s="116"/>
+      <c r="B138" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C138" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="62"/>
-      <c r="E138" s="62"/>
-      <c r="F138" s="62"/>
-      <c r="G138" s="62"/>
-      <c r="H138" s="18" t="s">
+      <c r="C138" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="52"/>
+      <c r="E138" s="52"/>
+      <c r="F138" s="52"/>
+      <c r="G138" s="52"/>
+      <c r="H138" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="I138" s="62"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A139" s="115"/>
-      <c r="B139" s="18" t="s">
+      <c r="I138" s="52"/>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="116"/>
+      <c r="B139" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C139" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18" t="s">
+      <c r="C139" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="I139" s="18"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A140" s="115"/>
-      <c r="B140" s="18" t="s">
+      <c r="I139" s="23"/>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="116"/>
+      <c r="B140" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C140" s="19" t="s">
+      <c r="C140" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="18"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" s="115"/>
-      <c r="B141" s="18" t="s">
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23"/>
+      <c r="H140" s="23"/>
+      <c r="I140" s="23"/>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="116"/>
+      <c r="B141" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C141" s="19" t="s">
+      <c r="C141" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="18"/>
-      <c r="I141" s="18"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" s="115"/>
-      <c r="B142" s="18" t="s">
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="23"/>
+      <c r="H141" s="23"/>
+      <c r="I141" s="23"/>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="116"/>
+      <c r="B142" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C142" s="19" t="s">
+      <c r="C142" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D142" s="18"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18"/>
-      <c r="G142" s="18"/>
-      <c r="H142" s="18"/>
-      <c r="I142" s="18"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B143" s="98" t="s">
+      <c r="D142" s="23"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="23"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="23"/>
+      <c r="I142" s="23"/>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="B143" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B145" s="1" t="s">
+    <row r="145" spans="1:2">
+      <c r="B145" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B146" s="1" t="s">
+    <row r="146" spans="1:2">
+      <c r="B146" s="20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B147" s="1" t="s">
+    <row r="147" spans="1:2">
+      <c r="B147" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B148" s="1" t="s">
+    <row r="148" spans="1:2">
+      <c r="B148" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+    <row r="150" spans="1:2">
+      <c r="A150" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B153" s="1" t="s">
+    <row r="153" spans="1:2">
+      <c r="B153" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B155" s="1" t="s">
+    <row r="155" spans="1:2">
+      <c r="B155" s="20" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A67:A70"/>
     <mergeCell ref="A133:A135"/>
     <mergeCell ref="A136:A142"/>
     <mergeCell ref="A111:E111"/>
@@ -3953,6 +3894,7 @@
     <mergeCell ref="E56:I56"/>
     <mergeCell ref="A61:A66"/>
     <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A67:A70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3963,13 +3905,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="130.21875" style="107" customWidth="1"/>
+    <col min="2" max="2" width="130.21875" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="45.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
@@ -3977,105 +3919,105 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="108" t="s">
+    <row r="4" spans="1:4">
+      <c r="B4" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="C6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="105">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="105">
+    <row r="8" spans="1:4" ht="28.8">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="105">
+    <row r="9" spans="1:4" ht="28.8">
+      <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="133">
+    <row r="10" spans="1:4" ht="28.8">
+      <c r="A10" s="121">
         <v>4</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="133"/>
-      <c r="B11" s="107" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="121"/>
+      <c r="B11" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="133"/>
-      <c r="B12" s="107" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="121"/>
+      <c r="B12" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="105">
+    <row r="13" spans="1:4" ht="28.8">
+      <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="105">
+    <row r="14" spans="1:4" ht="28.8">
+      <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="105">
+    <row r="15" spans="1:4" ht="28.8">
+      <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C15" t="s">
@@ -4085,14 +4027,14 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="111" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="109">
+    <row r="16" spans="1:4" s="7" customFormat="1">
+      <c r="A16" s="5">
         <v>8</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="7" t="s">
         <v>146</v>
       </c>
     </row>

--- a/Database ToCoShopvs.xlsx
+++ b/Database ToCoShopvs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="152">
   <si>
     <t>No.</t>
   </si>
@@ -468,6 +468,9 @@
   </si>
   <si>
     <t>UNIQUE -Reference to collection Login</t>
+  </si>
+  <si>
+    <t>Liệt kê danh sách sản phẩm thêm trường bestDiscount chứa discount của mẫu attribute giảm giá lớn nhất- đây là danh sách sản phẩm còn hàng trong kho</t>
   </si>
 </sst>
 </file>
@@ -660,28 +663,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -693,10 +691,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1004,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1047,54 +1050,54 @@
       <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -1150,7 +1153,7 @@
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1186,54 +1189,54 @@
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <v>1</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -1334,7 +1337,7 @@
       <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -1370,54 +1373,54 @@
       <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
+      <c r="A25" s="16">
         <v>1</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18" t="s">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18" t="s">
+      <c r="G25" s="16"/>
+      <c r="H25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="18"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
@@ -1530,13 +1533,13 @@
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="A31" s="21">
         <v>7</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="5"/>
@@ -1547,7 +1550,7 @@
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="5" t="s">
         <v>25</v>
       </c>
@@ -1566,7 +1569,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="5" t="s">
         <v>24</v>
       </c>
@@ -1587,7 +1590,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="5" t="s">
         <v>52</v>
       </c>
@@ -1606,7 +1609,7 @@
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="5" t="s">
         <v>51</v>
       </c>
@@ -1625,26 +1628,26 @@
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="27"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="5" t="s">
         <v>49</v>
       </c>
@@ -1663,7 +1666,7 @@
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="5" t="s">
         <v>99</v>
       </c>
@@ -1682,7 +1685,7 @@
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="5" t="s">
         <v>100</v>
       </c>
@@ -1701,7 +1704,7 @@
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="5" t="s">
         <v>50</v>
       </c>
@@ -1720,17 +1723,17 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28">
+      <c r="A41" s="22">
         <v>8</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="5"/>
@@ -1739,7 +1742,7 @@
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="5" t="s">
         <v>90</v>
       </c>
@@ -1748,7 +1751,7 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="16" t="s">
         <v>33</v>
       </c>
       <c r="G42" s="5"/>
@@ -1758,7 +1761,7 @@
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="5" t="s">
         <v>52</v>
       </c>
@@ -1777,7 +1780,7 @@
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="5" t="s">
         <v>51</v>
       </c>
@@ -1796,7 +1799,7 @@
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="5" t="s">
         <v>25</v>
       </c>
@@ -1815,26 +1818,26 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A46" s="28"/>
-      <c r="B46" s="24" t="s">
+      <c r="A46" s="22"/>
+      <c r="B46" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="5" t="s">
         <v>49</v>
       </c>
@@ -1853,7 +1856,7 @@
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="5" t="s">
         <v>99</v>
       </c>
@@ -1872,7 +1875,7 @@
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="5" t="s">
         <v>100</v>
       </c>
@@ -1891,7 +1894,7 @@
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="5" t="s">
         <v>50</v>
       </c>
@@ -1910,7 +1913,7 @@
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="5" t="s">
         <v>47</v>
       </c>
@@ -1929,17 +1932,17 @@
       <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+      <c r="A52" s="21">
         <v>9</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18" t="s">
+      <c r="D52" s="16"/>
+      <c r="E52" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F52" s="5"/>
@@ -1948,7 +1951,7 @@
       <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="5" t="s">
         <v>53</v>
       </c>
@@ -1965,24 +1968,24 @@
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24" t="s">
+      <c r="A54" s="21"/>
+      <c r="B54" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="29" t="s">
+      <c r="D54" s="18"/>
+      <c r="E54" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="5" t="s">
         <v>56</v>
       </c>
@@ -1999,7 +2002,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="5" t="s">
         <v>87</v>
       </c>
@@ -2016,7 +2019,7 @@
       <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="5" t="s">
         <v>57</v>
       </c>
@@ -2033,7 +2036,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="5" t="s">
         <v>58</v>
       </c>
@@ -2052,13 +2055,13 @@
       </c>
     </row>
     <row r="59" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23">
+      <c r="A59" s="21">
         <v>10</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D59" s="5"/>
@@ -2069,7 +2072,7 @@
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="5" t="s">
         <v>145</v>
       </c>
@@ -2078,7 +2081,7 @@
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="16" t="s">
         <v>33</v>
       </c>
       <c r="G60" s="5"/>
@@ -2088,7 +2091,7 @@
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="5" t="s">
         <v>39</v>
       </c>
@@ -2103,7 +2106,7 @@
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="5" t="s">
         <v>41</v>
       </c>
@@ -2118,7 +2121,7 @@
       <c r="I62" s="5"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="5" t="s">
         <v>42</v>
       </c>
@@ -2133,13 +2136,13 @@
       <c r="I63" s="5"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="23">
+      <c r="A64" s="21">
         <v>11</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D64" s="5"/>
@@ -2150,7 +2153,7 @@
       <c r="I64" s="5"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="5" t="s">
         <v>92</v>
       </c>
@@ -2159,7 +2162,7 @@
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="16" t="s">
         <v>33</v>
       </c>
       <c r="G65" s="5"/>
@@ -2169,7 +2172,7 @@
       <c r="I65" s="5"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="5" t="s">
         <v>93</v>
       </c>
@@ -2188,7 +2191,7 @@
       <c r="I66" s="5"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="5" t="s">
         <v>88</v>
       </c>
@@ -2229,54 +2232,54 @@
       <c r="I71" s="19"/>
     </row>
     <row r="72" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="G72" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H72" s="18" t="s">
+      <c r="H72" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I72" s="18" t="s">
+      <c r="I72" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="18">
+      <c r="A73" s="16">
         <v>1</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18" t="s">
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18" t="s">
+      <c r="G73" s="16"/>
+      <c r="H73" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I73" s="18"/>
+      <c r="I73" s="16"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
@@ -2427,54 +2430,54 @@
       <c r="I84" s="19"/>
     </row>
     <row r="85" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F85" s="18" t="s">
+      <c r="F85" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="18" t="s">
+      <c r="G85" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H85" s="18" t="s">
+      <c r="H85" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="18" t="s">
+      <c r="I85" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="18">
+      <c r="A86" s="16">
         <v>1</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18" t="s">
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18" t="s">
+      <c r="G86" s="16"/>
+      <c r="H86" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I86" s="18"/>
+      <c r="I86" s="16"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
@@ -2596,54 +2599,54 @@
       <c r="I97" s="19"/>
     </row>
     <row r="98" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="D98" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F98" s="18" t="s">
+      <c r="F98" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G98" s="18" t="s">
+      <c r="G98" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H98" s="18" t="s">
+      <c r="H98" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I98" s="18" t="s">
+      <c r="I98" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="18">
+      <c r="A99" s="16">
         <v>1</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18" t="s">
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18" t="s">
+      <c r="G99" s="16"/>
+      <c r="H99" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I99" s="18"/>
+      <c r="I99" s="16"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
@@ -2775,54 +2778,54 @@
       <c r="I108" s="19"/>
     </row>
     <row r="109" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="18" t="s">
+      <c r="A109" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D109" s="18" t="s">
+      <c r="D109" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="E109" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F109" s="18" t="s">
+      <c r="F109" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G109" s="18" t="s">
+      <c r="G109" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H109" s="18" t="s">
+      <c r="H109" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I109" s="18" t="s">
+      <c r="I109" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="18">
+      <c r="A110" s="16">
         <v>1</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D110" s="18">
+      <c r="D110" s="16">
         <v>50</v>
       </c>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18" t="s">
+      <c r="E110" s="16"/>
+      <c r="F110" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
@@ -2991,89 +2994,89 @@
       <c r="I118" s="5"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="16"/>
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="21" t="s">
+      <c r="A120" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B120" s="21"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="21"/>
-      <c r="I120" s="21"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="27"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="22"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
+      <c r="A121" s="28"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="28"/>
+      <c r="I121" s="28"/>
     </row>
     <row r="122" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="18" t="s">
+      <c r="A122" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="18" t="s">
+      <c r="D122" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E122" s="18" t="s">
+      <c r="E122" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F122" s="18" t="s">
+      <c r="F122" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G122" s="18" t="s">
+      <c r="G122" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H122" s="18" t="s">
+      <c r="H122" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I122" s="18" t="s">
+      <c r="I122" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="18">
+      <c r="A123" s="16">
         <v>1</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18" t="s">
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18" t="s">
+      <c r="G123" s="16"/>
+      <c r="H123" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I123" s="18"/>
+      <c r="I123" s="16"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
@@ -3127,7 +3130,7 @@
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
-      <c r="F126" s="18" t="s">
+      <c r="F126" s="16" t="s">
         <v>33</v>
       </c>
       <c r="G126" s="5"/>
@@ -3148,7 +3151,7 @@
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
-      <c r="F127" s="18" t="s">
+      <c r="F127" s="16" t="s">
         <v>33</v>
       </c>
       <c r="G127" s="5"/>
@@ -3219,13 +3222,13 @@
       <c r="I130" s="5"/>
     </row>
     <row r="131" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="23">
+      <c r="A131" s="21">
         <v>9</v>
       </c>
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C131" s="18" t="s">
+      <c r="C131" s="16" t="s">
         <v>86</v>
       </c>
       <c r="D131" s="5"/>
@@ -3238,7 +3241,7 @@
       <c r="I131" s="5"/>
     </row>
     <row r="132" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="23"/>
+      <c r="A132" s="21"/>
       <c r="B132" s="5" t="s">
         <v>119</v>
       </c>
@@ -3253,7 +3256,7 @@
       <c r="L132" s="7"/>
     </row>
     <row r="133" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="23"/>
+      <c r="A133" s="21"/>
       <c r="B133" s="5" t="s">
         <v>120</v>
       </c>
@@ -3271,13 +3274,13 @@
       <c r="L133" s="7"/>
     </row>
     <row r="134" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="23">
+      <c r="A134" s="21">
         <v>10</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="16" t="s">
         <v>86</v>
       </c>
       <c r="D134" s="5"/>
@@ -3288,7 +3291,7 @@
       <c r="I134" s="5"/>
     </row>
     <row r="135" spans="1:12" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A135" s="23"/>
+      <c r="A135" s="21"/>
       <c r="B135" s="5" t="s">
         <v>9</v>
       </c>
@@ -3307,7 +3310,7 @@
       <c r="I135" s="5"/>
     </row>
     <row r="136" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="23"/>
+      <c r="A136" s="21"/>
       <c r="B136" s="5" t="s">
         <v>122</v>
       </c>
@@ -3324,7 +3327,7 @@
       <c r="I136" s="5"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A137" s="23"/>
+      <c r="A137" s="21"/>
       <c r="B137" s="5" t="s">
         <v>105</v>
       </c>
@@ -3341,7 +3344,7 @@
       <c r="I137" s="5"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A138" s="23"/>
+      <c r="A138" s="21"/>
       <c r="B138" s="5" t="s">
         <v>80</v>
       </c>
@@ -3356,7 +3359,7 @@
       <c r="I138" s="5"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A139" s="23"/>
+      <c r="A139" s="21"/>
       <c r="B139" s="5" t="s">
         <v>41</v>
       </c>
@@ -3371,7 +3374,7 @@
       <c r="I139" s="5"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A140" s="23"/>
+      <c r="A140" s="21"/>
       <c r="B140" s="5" t="s">
         <v>42</v>
       </c>
@@ -3430,6 +3433,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="A134:A140"/>
+    <mergeCell ref="A107:I108"/>
+    <mergeCell ref="A120:I121"/>
     <mergeCell ref="A2:I3"/>
     <mergeCell ref="A11:I12"/>
     <mergeCell ref="A22:I23"/>
@@ -3444,10 +3451,6 @@
     <mergeCell ref="A52:A58"/>
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="A134:A140"/>
-    <mergeCell ref="A107:I108"/>
-    <mergeCell ref="A120:I121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3456,10 +3459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D16"/>
+  <dimension ref="A4:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3516,7 +3519,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="29">
         <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -3527,7 +3530,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="10" t="s">
         <v>134</v>
       </c>
@@ -3536,7 +3539,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="10" t="s">
         <v>135</v>
       </c>
@@ -3589,6 +3592,14 @@
       </c>
       <c r="D16" s="14" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>9</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
